--- a/Docs/product backlog.xlsx
+++ b/Docs/product backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13920"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>Story ID</t>
   </si>
@@ -136,29 +136,30 @@
     <t>2.3.2.1</t>
   </si>
   <si>
-    <t>Story 2.3.2.1</t>
+    <t>Story 2.3.3.1</t>
   </si>
   <si>
     <t>As a airport staff
-  I want a tag that needs to be attached to the carry-on baggage
-  So that I can record and check the weight and contents of the luggage during the security check to ensure the safety of the flight</t>
-  </si>
-  <si>
-    <t>The tag needs to have the information including the flight number, destination, departure, and the ID of the baggage tag</t>
-  </si>
-  <si>
-    <t>2.3.2.2</t>
-  </si>
-  <si>
-    <t>Story 2.3.2.2</t>
-  </si>
-  <si>
-    <t>As a passenger with a plain suitcase  
-I want a tag that needs to be attached to the carry-on baggage
-  So that  I can find my own luggage by matching the tag on my boarding pass to the tag on my suitcase</t>
-  </si>
-  <si>
-    <t>The tag needs to have the information including the ID of the baggage tag</t>
+I want a ticket that needs to be attached to the check-in baggage
+So that I can record and check the weight and contents of the luggage during the security check to ensure the safety of the flight</t>
+  </si>
+  <si>
+    <t>The ticket needs to have the information including the flight number, destination, departure, and the ID of the baggage tag</t>
+  </si>
+  <si>
+    <t>2.3.3.2</t>
+  </si>
+  <si>
+    <t>Story 2.3.3.2</t>
+  </si>
+  <si>
+    <t>As a Businessman
+I want a ticket with the number of the assigned bag drop counter where the passenger needs to go to drop his/her check-in baggage
+So that I can faster access to bag drop counter information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tickets are printed with adhesive material on the back, giving passengers the option to attach their tickets to their boarding passes without losing them
+</t>
   </si>
   <si>
     <t>2.1.2</t>
@@ -191,19 +192,18 @@
 ·Verify that the additional price can be displayed.</t>
   </si>
   <si>
-    <t>2.3.3</t>
-  </si>
-  <si>
-    <t>Story 2.3.3</t>
-  </si>
-  <si>
-    <t>As a Businessman
-  I want a ticket with the number of the assigned bag drop counter where the passenger needs to go to drop his/her check-in baggage
-  So that  I can faster access to bag drop counter information</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tickets are printed with adhesive material on the back, giving passengers the option to attach their tickets to their boarding passes without losing them
-</t>
+    <t>2.3.2</t>
+  </si>
+  <si>
+    <t>Story 2.3.2</t>
+  </si>
+  <si>
+    <t>As a passenger with a plain suitcase  
+I want a tag that needs to be attached to the carry-on baggage
+So that I can find my own luggage by checking the tag on my suitcase, and the baggage won’t be taken in error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The tag needs to have the information including the surname of  passenger and the number of the baggage </t>
   </si>
   <si>
     <t>Story 2.4</t>
@@ -241,11 +241,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -268,14 +268,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -284,30 +312,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -330,63 +352,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -398,15 +367,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -427,61 +420,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -493,115 +588,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -639,13 +632,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -674,41 +686,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -727,222 +709,230 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="47" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="47" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="36" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="36" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
@@ -1238,24 +1228,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="119" zoomScaleNormal="119" workbookViewId="0">
-      <selection activeCell="D1" sqref="D$1:D$1048576"/>
+    <sheetView tabSelected="1" zoomScale="119" zoomScaleNormal="119" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.9134615384615" customWidth="1"/>
-    <col min="2" max="2" width="16.7115384615385" customWidth="1"/>
+    <col min="1" max="1" width="10.9166666666667" customWidth="1"/>
+    <col min="2" max="2" width="16.712962962963" customWidth="1"/>
     <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="5" max="5" width="28.4230769230769" customWidth="1"/>
-    <col min="6" max="6" width="37.7019230769231" customWidth="1"/>
-    <col min="7" max="7" width="17.1442307692308" customWidth="1"/>
-    <col min="8" max="8" width="24.8557692307692" customWidth="1"/>
-    <col min="9" max="9" width="26.2884615384615" customWidth="1"/>
+    <col min="5" max="5" width="28.4259259259259" customWidth="1"/>
+    <col min="6" max="6" width="37.7037037037037" customWidth="1"/>
+    <col min="7" max="7" width="17.1481481481481" customWidth="1"/>
+    <col min="8" max="8" width="24.8518518518519" customWidth="1"/>
+    <col min="9" max="9" width="26.287037037037" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1303,18 +1293,18 @@
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" ht="118" spans="1:6">
+    <row r="3" ht="115.2" spans="1:6">
       <c r="A3" t="s">
         <v>13</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D3">
@@ -1323,18 +1313,18 @@
       <c r="E3">
         <v>1</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" ht="118" spans="1:6">
+    <row r="4" ht="115.2" spans="1:6">
       <c r="A4" t="s">
         <v>17</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D4">
@@ -1343,18 +1333,18 @@
       <c r="E4">
         <v>1</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" ht="68" spans="1:6">
+    <row r="5" ht="57.6" spans="1:6">
       <c r="A5" t="s">
         <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D5">
@@ -1363,18 +1353,18 @@
       <c r="E5">
         <v>1</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" ht="101" spans="1:6">
+    <row r="6" ht="100.8" spans="1:6">
       <c r="A6" t="s">
         <v>25</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D6">
@@ -1383,18 +1373,18 @@
       <c r="E6">
         <v>1</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" ht="84" spans="1:6">
+    <row r="7" ht="86.4" spans="1:6">
       <c r="A7" t="s">
         <v>29</v>
       </c>
       <c r="B7" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D7">
@@ -1403,18 +1393,18 @@
       <c r="E7">
         <v>1</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" ht="118" spans="1:6">
+    <row r="8" ht="100.8" spans="1:6">
       <c r="A8" t="s">
         <v>33</v>
       </c>
       <c r="B8" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D8">
@@ -1423,18 +1413,18 @@
       <c r="E8">
         <v>1</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" ht="101" spans="1:6">
+    <row r="9" ht="100.8" spans="1:6">
       <c r="A9" t="s">
         <v>37</v>
       </c>
       <c r="B9" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D9">
@@ -1443,18 +1433,18 @@
       <c r="E9">
         <v>1</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" ht="88" spans="1:6">
+    <row r="10" ht="93.6" spans="1:6">
       <c r="A10" t="s">
         <v>41</v>
       </c>
       <c r="B10" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>43</v>
       </c>
       <c r="D10">
@@ -1463,18 +1453,18 @@
       <c r="E10">
         <v>1</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="11" ht="101" spans="1:6">
+    <row r="11" ht="86.4" spans="1:6">
       <c r="A11" t="s">
         <v>45</v>
       </c>
       <c r="B11" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>47</v>
       </c>
       <c r="D11">
@@ -1483,18 +1473,18 @@
       <c r="E11">
         <v>1</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="12" ht="118" spans="1:6">
+    <row r="12" ht="115.2" spans="1:6">
       <c r="A12" t="s">
         <v>49</v>
       </c>
       <c r="B12" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>51</v>
       </c>
       <c r="D12">
@@ -1503,18 +1493,18 @@
       <c r="E12">
         <v>1</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="13" ht="101" spans="1:6">
-      <c r="A13" s="5">
+    <row r="13" ht="100.8" spans="1:6">
+      <c r="A13" s="6">
         <v>2.4</v>
       </c>
       <c r="B13" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>54</v>
       </c>
       <c r="D13">
@@ -1523,18 +1513,18 @@
       <c r="E13">
         <v>1</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="14" ht="101" spans="1:6">
+    <row r="14" ht="100.8" spans="1:6">
       <c r="A14" t="s">
         <v>56</v>
       </c>
       <c r="B14" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>58</v>
       </c>
       <c r="D14">
@@ -1543,7 +1533,7 @@
       <c r="E14">
         <v>1</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="3" t="s">
         <v>59</v>
       </c>
     </row>

--- a/Docs/product backlog.xlsx
+++ b/Docs/product backlog.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EBU6304-2021-Software-Engineering-Group-111\Docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37BFDC6B-B256-4745-9176-3BD12716B111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -168,11 +174,6 @@
     <t>Story 2.1.2</t>
   </si>
   <si>
-    <t xml:space="preserve">  As a  passenger,
-  I want ti have multiple ways to retrieve my flight booking information,
-  So that  I can continue even if I forget my booking number.</t>
-  </si>
-  <si>
     <t>Users have the options to search their flight information in ways other than inputting booking number, such as entering surname and ID number, or scanning their ID documents.</t>
   </si>
   <si>
@@ -233,19 +234,19 @@
     <t>·Verify that meal that can be chosen are available for that Airline company
 ·Verify that sample pictures can be displayed
 ·Verify that the additional price can be displayed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  As a  passenger,
+  I want to have multiple ways to retrieve my flight booking information,
+  So that  I can continue even if I forget my booking number.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -262,150 +263,27 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -414,192 +292,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -622,254 +320,15 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="36" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="36" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -882,62 +341,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
+    <cellStyle name="40% - 着色 1" xfId="1" builtinId="31"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1224,31 +645,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="119" zoomScaleNormal="119" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.9166666666667" customWidth="1"/>
-    <col min="2" max="2" width="16.712962962963" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
     <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="5" max="5" width="28.4259259259259" customWidth="1"/>
-    <col min="6" max="6" width="37.7037037037037" customWidth="1"/>
-    <col min="7" max="7" width="17.1481481481481" customWidth="1"/>
-    <col min="8" max="8" width="24.8518518518519" customWidth="1"/>
-    <col min="9" max="9" width="26.287037037037" customWidth="1"/>
+    <col min="5" max="5" width="28.44140625" customWidth="1"/>
+    <col min="6" max="6" width="37.6640625" customWidth="1"/>
+    <col min="7" max="7" width="17.109375" customWidth="1"/>
+    <col min="8" max="8" width="24.88671875" customWidth="1"/>
+    <col min="9" max="9" width="26.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1277,7 +698,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="116" customHeight="1" spans="1:6">
+    <row r="2" spans="1:9" ht="115.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1296,8 +717,14 @@
       <c r="F2" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" ht="115.2" spans="1:6">
+      <c r="H2" s="7">
+        <v>44638</v>
+      </c>
+      <c r="I2" s="7">
+        <v>44644</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="115.2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1316,8 +743,14 @@
       <c r="F3" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" ht="115.2" spans="1:6">
+      <c r="H3" s="8">
+        <v>44639</v>
+      </c>
+      <c r="I3" s="8">
+        <v>44641</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="115.2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1336,8 +769,14 @@
       <c r="F4" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" ht="57.6" spans="1:6">
+      <c r="H4" s="7">
+        <v>44639</v>
+      </c>
+      <c r="I4" s="7">
+        <v>44643</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -1356,8 +795,10 @@
       <c r="F5" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" ht="100.8" spans="1:6">
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="1:9" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -1376,8 +817,14 @@
       <c r="F6" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="7" ht="86.4" spans="1:6">
+      <c r="H6" s="7">
+        <v>44640</v>
+      </c>
+      <c r="I6" s="7">
+        <v>44640</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="86.4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -1396,8 +843,14 @@
       <c r="F7" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="8" ht="100.8" spans="1:6">
+      <c r="H7" s="7">
+        <v>44643</v>
+      </c>
+      <c r="I7" s="7">
+        <v>44646</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -1416,8 +869,14 @@
       <c r="F8" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="9" ht="100.8" spans="1:6">
+      <c r="H8" s="7">
+        <v>44642</v>
+      </c>
+      <c r="I8" s="7">
+        <v>44644</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -1436,16 +895,22 @@
       <c r="F9" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="10" ht="93.6" spans="1:6">
+      <c r="H9" s="7">
+        <v>44642</v>
+      </c>
+      <c r="I9" s="7">
+        <v>44644</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="93.6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>41</v>
       </c>
       <c r="B10" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>43</v>
+      <c r="C10" s="9" t="s">
+        <v>59</v>
       </c>
       <c r="D10">
         <v>3</v>
@@ -1454,18 +919,21 @@
         <v>1</v>
       </c>
       <c r="F10" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="7">
+        <v>44642</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="86.4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="11" ht="86.4" spans="1:6">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
         <v>45</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="D11">
         <v>3</v>
@@ -1474,18 +942,24 @@
         <v>1</v>
       </c>
       <c r="F11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" s="7">
+        <v>44639</v>
+      </c>
+      <c r="I11" s="7">
+        <v>44641</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="115.2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="12" ht="115.2" spans="1:6">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
         <v>49</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="D12">
         <v>3</v>
@@ -1494,18 +968,24 @@
         <v>1</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" ht="100.8" spans="1:6">
+        <v>51</v>
+      </c>
+      <c r="H12" s="7">
+        <v>44642</v>
+      </c>
+      <c r="I12" s="7">
+        <v>44643</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>2.4</v>
       </c>
       <c r="B13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="D13">
         <v>3</v>
@@ -1514,18 +994,24 @@
         <v>1</v>
       </c>
       <c r="F13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H13" s="7">
+        <v>44645</v>
+      </c>
+      <c r="I13" s="7">
+        <v>44647</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="100.8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="14" ht="100.8" spans="1:6">
-      <c r="A14" t="s">
+      <c r="B14" t="s">
         <v>56</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="D14">
         <v>4</v>
@@ -1534,15 +1020,21 @@
         <v>1</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="H14" s="7">
+        <v>44639</v>
+      </c>
+      <c r="I14" s="7">
+        <v>44643</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:I14">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I14">
     <sortCondition ref="D2"/>
   </sortState>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Docs/product backlog.xlsx
+++ b/Docs/product backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EBU6304-2021-Software-Engineering-Group-111\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37BFDC6B-B256-4745-9176-3BD12716B111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E5F593F-64AA-4D64-8315-63CE16EA575A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -654,7 +654,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -924,6 +924,9 @@
       <c r="H10" s="7">
         <v>44642</v>
       </c>
+      <c r="I10" s="7">
+        <v>44648</v>
+      </c>
     </row>
     <row r="11" spans="1:9" ht="86.4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">

--- a/Docs/product backlog.xlsx
+++ b/Docs/product backlog.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EBU6304-2021-Software-Engineering-Group-111\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E5F593F-64AA-4D64-8315-63CE16EA575A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E10F20E6-19BB-4153-B844-1D2990CFED60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -653,8 +653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -795,8 +795,12 @@
       <c r="F5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
+      <c r="H5" s="7">
+        <v>44649</v>
+      </c>
+      <c r="I5" s="7">
+        <v>44649</v>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">

--- a/Docs/product backlog.xlsx
+++ b/Docs/product backlog.xlsx
@@ -1,26 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EBU6304-2021-Software-Engineering-Group-111\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E10F20E6-19BB-4153-B844-1D2990CFED60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{28D241FB-3FE8-44D4-8969-ED51AC072AB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="77">
   <si>
     <t>Story ID</t>
   </si>
@@ -47,43 +59,6 @@
   </si>
   <si>
     <t>Date finished (actual date)</t>
-  </si>
-  <si>
-    <t>2.1.1</t>
-  </si>
-  <si>
-    <t>Story 2.1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a passenger,
-  I want to use my booking number to retrieve my flight booking information,
-  So that I can check my flight information easily.  
-</t>
-  </si>
-  <si>
-    <t>When users input their booking numb
-ers, the screen displays information of their flight.</t>
-  </si>
-  <si>
-    <t>2.1.3</t>
-  </si>
-  <si>
-    <t>Story 2.1.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  As a  passenger,
-  I want select seats when I will in flight (such as: economy class, first class, etc.).
-  So that I can have a suitable seat.</t>
-  </si>
-  <si>
-    <t>Upon successful retrieval of the booking, the system will show a summary of the booked flight. 
-At this moment, the flight passengers can choose which seats does they want when they will in flight.The optional can be economy class, first class, etc.</t>
-  </si>
-  <si>
-    <t>2.1.4</t>
-  </si>
-  <si>
-    <t>Story 2.1.4</t>
   </si>
   <si>
     <t>As a  passenger,    
@@ -91,27 +66,11 @@
   So that I can have more suitable meat with personal dietary habit.</t>
   </si>
   <si>
-    <t>Upon successful retrieval of the booking, the system will show a summary of the booked flight. 
-At this moment, the flight passengers can choose which food does they want when they will in flight.The optional can be standard, vegetarian, halal, etc.</t>
-  </si>
-  <si>
-    <t>2.1.5</t>
-  </si>
-  <si>
-    <t>Story 2.1.5</t>
-  </si>
-  <si>
     <t xml:space="preserve">  As a passenger,
   I want scan my ID documents,
   So that I can click to confirm the check-in</t>
   </si>
   <si>
-    <t>After choosing seats and food, the screen shows the passengers to scan their ID documents to conform they will check in.</t>
-  </si>
-  <si>
-    <t>2.3.1</t>
-  </si>
-  <si>
     <t>Story 2.3.1</t>
   </si>
   <si>
@@ -120,126 +79,277 @@
 So that I can get clear information without going through the tedious process of looking it up on my phone</t>
   </si>
   <si>
-    <t>The boarding pass needs to have information including flight number, airlines, destination, class level, flight date, seat number, boarding gate, passenger name, boarding time and the ID of boarding pass</t>
-  </si>
-  <si>
-    <t>2.2.3</t>
-  </si>
-  <si>
-    <t>Story 2.2.3</t>
-  </si>
-  <si>
     <t xml:space="preserve">  As a Passenger with special needs
   I want to clearly see my extra payment list
   So that I can pay for that with no doubt</t>
   </si>
   <si>
-    <t>·Verify that the list is displayed wholly.
-·Verify that the list is displayed clearly.
-·Verify the process of paying is convenient.</t>
-  </si>
-  <si>
-    <t>2.3.2.1</t>
-  </si>
-  <si>
-    <t>Story 2.3.3.1</t>
-  </si>
-  <si>
     <t>As a airport staff
 I want a ticket that needs to be attached to the check-in baggage
 So that I can record and check the weight and contents of the luggage during the security check to ensure the safety of the flight</t>
   </si>
   <si>
-    <t>The ticket needs to have the information including the flight number, destination, departure, and the ID of the baggage tag</t>
-  </si>
-  <si>
-    <t>2.3.3.2</t>
-  </si>
-  <si>
-    <t>Story 2.3.3.2</t>
-  </si>
-  <si>
     <t>As a Businessman
 I want a ticket with the number of the assigned bag drop counter where the passenger needs to go to drop his/her check-in baggage
 So that I can faster access to bag drop counter information</t>
   </si>
   <si>
-    <t xml:space="preserve">Tickets are printed with adhesive material on the back, giving passengers the option to attach their tickets to their boarding passes without losing them
-</t>
-  </si>
-  <si>
-    <t>2.1.2</t>
-  </si>
-  <si>
-    <t>Story 2.1.2</t>
-  </si>
-  <si>
-    <t>Users have the options to search their flight information in ways other than inputting booking number, such as entering surname and ID number, or scanning their ID documents.</t>
-  </si>
-  <si>
-    <t>2.2.1</t>
-  </si>
-  <si>
-    <t>Story 2.2.1</t>
-  </si>
-  <si>
     <t xml:space="preserve"> As a  Passenger with special seating needs
   I want  to select special seat (e.g., seat with extra legroom)
   So that  I can stay more comfortable during the flight</t>
   </si>
   <si>
-    <t>·Verify that seats that can be chosen are still available.
-·Verify that user can see the position of seat clearly.
-·Verify that the additional price can be displayed.</t>
-  </si>
-  <si>
-    <t>2.3.2</t>
-  </si>
-  <si>
-    <t>Story 2.3.2</t>
-  </si>
-  <si>
     <t>As a passenger with a plain suitcase  
 I want a tag that needs to be attached to the carry-on baggage
 So that I can find my own luggage by checking the tag on my suitcase, and the baggage won’t be taken in error</t>
   </si>
   <si>
-    <t xml:space="preserve">The tag needs to have the information including the surname of  passenger and the number of the baggage </t>
-  </si>
-  <si>
-    <t>Story 2.4</t>
-  </si>
-  <si>
     <t xml:space="preserve">  As a Airline staff
   I want to view the list of passengers and their check-in status
   So that I can provide info to other departments</t>
   </si>
   <si>
-    <t>·Verify that the page can display real-time status.
-·Verify that passengers that have not checked in yet are listed on top.
-·Verify that special needs of passengers are attached.</t>
-  </si>
-  <si>
-    <t>2.2.2</t>
-  </si>
-  <si>
-    <t>Story 2.2.2</t>
-  </si>
-  <si>
     <t xml:space="preserve"> As a  Passenger with special meal needs
   I want to select special meal (e.g., Chinese food, French food…)
   So that I can eat more delicious food during flight</t>
   </si>
   <si>
-    <t>·Verify that meal that can be chosen are available for that Airline company
-·Verify that sample pictures can be displayed
-·Verify that the additional price can be displayed.</t>
-  </si>
-  <si>
     <t xml:space="preserve">  As a  passenger,
   I want to have multiple ways to retrieve my flight booking information,
   So that  I can continue even if I forget my booking number.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2.2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.3.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2.3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.3.2.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.3.3.2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.3.2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  As a passenger
+  I want to select flights from multiple booking numbers
+  So that I can check in any flight I booked</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  As an airport staff
+  I want to make sure that I can and only I can exit this software
+  So that the check-in system can run safe</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  As an airport staff
+  I want to config the I/O port of card reader mounted on kiosk
+  So that I can choose devices more flexible</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  As a passenger
+  I want to know plane information when selecting seats
+  So that I can choose the seat I like</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  As a airport manager
+  I want to equipt the software with fancy animations
+  So that my passengers can have silky smooth experiences</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  As a passenger
+  I want to know the current time when I use the software
+  So that I can campare times conveniently</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add animation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add clock</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add planes info</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Show all filghts</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Better admin exit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add I/O port config</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>- Verify that users have the options to search their flight information in ways other than inputting booking number, such as entering surname and ID number, or scanning their ID documents.</t>
+  </si>
+  <si>
+    <t>- Verify that when users input their booking numbers, the screen displays information of their flight.</t>
+  </si>
+  <si>
+    <t>Meal preferences</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Back-end system</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>- Verify that upon successful retrieval of the booking, the system will show a summary of the booked flight. 
+- Verify that flight passengers can choose which food does they want when they will in flight.The optional can be standard, vegetarian, halal, etc.</t>
+  </si>
+  <si>
+    <t>- Verify that after choosing seats and food, the screen shows the passengers to scan their ID documents to conform they will check in.</t>
+  </si>
+  <si>
+    <t>- Verify that the ticket has the information including the flight number, destination, departure, and the ID of the baggage tag
+- Verify that the layout is reasonable and beautiful</t>
+  </si>
+  <si>
+    <t>Printing tags</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">- Verify that tickets are printed with adhesive material on the back, giving passengers the option to attach their tickets to their boarding passes without losing them
+</t>
+  </si>
+  <si>
+    <t>Seat preferences</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  As a  passenger,
+  I want select seats in flight.
+  So that I can have a suitable seat.</t>
+  </si>
+  <si>
+    <t>Login with ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Printing baggage tickets</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>- Verify that upon successful retrieval of the booking, the system will show a summary of the booked flight. 
+- Verify that flight passengers can choose seats they like.</t>
+  </si>
+  <si>
+    <t>Login with Booking Number</t>
+  </si>
+  <si>
+    <t>Seat Selection</t>
+  </si>
+  <si>
+    <t>Food Selection</t>
+  </si>
+  <si>
+    <t>Confirmation</t>
+  </si>
+  <si>
+    <t>Bill Confirmation</t>
+  </si>
+  <si>
+    <t>- Verify that the boarding pass has information including flight number, airlines, destination, class level, flight date, seat number, boarding gate, passenger name, boarding time and the ID of the boarding pass
+- Verify that the layout is reasonable and beautiful</t>
+  </si>
+  <si>
+    <t>- Verify that the list is displayed wholly.
+- Verify that the list is displayed clearly.
+- Verify the process of paying is convenient.</t>
+  </si>
+  <si>
+    <t>- Verify that the clock wouldn't stop</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>- Verify that seats that can be chosen are still available.
+- Verify that user can see the position of seat clearly.
+- Verify that the additional price can be displayed.</t>
+  </si>
+  <si>
+    <t>- Verify that the page can display real-time status.
+- Verify that passengers that have not checked in yet are listed on top.
+- Verify that special needs of passengers are attached.</t>
+  </si>
+  <si>
+    <t>- Verify that meal that can be chosen are available for that Airline company
+- Verify that sample pictures can be displayed
+- Verify that the additional price can be displayed.</t>
+  </si>
+  <si>
+    <t>- Verify that configuration file should be generated if not exists
+- Verify that user can edit configuration file</t>
+  </si>
+  <si>
+    <t>- Verify that the software should be killed at any circumstances
+- Verify that the method is hidden on screen</t>
+  </si>
+  <si>
+    <t>- Verify that all flights are displayed correctly
+- Verify that flight info card are categorized by booking numbers</t>
+  </si>
+  <si>
+    <t>- Verify that model, capacity and airline are included</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Verify that no bugs occur
+- Verify that the animation can run like silky chocolate </t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Varify that the tag has the information including the surname of the passenger and the number of the baggage </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  As a passenger,
+  I want to use my booking number to retrieve my flight booking information,
+  So that I can check my flight information easily.  </t>
   </si>
 </sst>
 </file>
@@ -249,13 +359,6 @@
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -277,10 +380,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -323,28 +430,48 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -651,397 +778,856 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="5" max="5" width="28.44140625" customWidth="1"/>
-    <col min="6" max="6" width="37.6640625" customWidth="1"/>
-    <col min="7" max="7" width="17.109375" customWidth="1"/>
-    <col min="8" max="8" width="24.88671875" customWidth="1"/>
-    <col min="9" max="9" width="26.33203125" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="36" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="21.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="37.6640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="6.109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="24.88671875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="26.33203125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="115.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:9" ht="69" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="6">
+        <v>1</v>
+      </c>
+      <c r="E2" s="6">
+        <v>1</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="8">
+        <v>44638</v>
+      </c>
+      <c r="I2" s="8">
+        <v>44644</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="2" customFormat="1" ht="69" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="9">
+        <v>1</v>
+      </c>
+      <c r="E3" s="9">
+        <v>1</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="9"/>
+      <c r="H3" s="12">
+        <v>44639</v>
+      </c>
+      <c r="I3" s="12">
+        <v>44641</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D4" s="6">
+        <v>1</v>
+      </c>
+      <c r="E4" s="6">
+        <v>1</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="8">
+        <v>44639</v>
+      </c>
+      <c r="I4" s="8">
+        <v>44643</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D5" s="6">
+        <v>1</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="8">
+        <v>44649</v>
+      </c>
+      <c r="I5" s="8">
+        <v>44649</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="108.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="C6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="7">
-        <v>44638</v>
-      </c>
-      <c r="I2" s="7">
+      <c r="D6" s="6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="8">
+        <v>44640</v>
+      </c>
+      <c r="I6" s="8">
+        <v>44640</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="6">
+        <v>2</v>
+      </c>
+      <c r="E7" s="6">
+        <v>1</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="8">
+        <v>44643</v>
+      </c>
+      <c r="I7" s="8">
+        <v>44646</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="6">
+        <v>2</v>
+      </c>
+      <c r="E8" s="6">
+        <v>1</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="8">
+        <v>44642</v>
+      </c>
+      <c r="I8" s="8">
         <v>44644</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="115.2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="3" t="s">
+    <row r="9" spans="1:9" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="D9" s="6">
+        <v>2</v>
+      </c>
+      <c r="E9" s="6">
+        <v>1</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="8">
+        <v>44642</v>
+      </c>
+      <c r="I9" s="8">
+        <v>44644</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="69" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="6">
+        <v>3</v>
+      </c>
+      <c r="E10" s="6">
+        <v>1</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="8">
+        <v>44642</v>
+      </c>
+      <c r="I10" s="8">
+        <v>44648</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="8">
+      <c r="D11" s="6">
+        <v>3</v>
+      </c>
+      <c r="E11" s="6">
+        <v>1</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="8">
         <v>44639</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I11" s="8">
         <v>44641</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="115.2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="12" spans="1:9" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D12" s="6">
+        <v>3</v>
+      </c>
+      <c r="E12" s="6">
+        <v>1</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="8">
+        <v>44642</v>
+      </c>
+      <c r="I12" s="8">
+        <v>44643</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A13" s="14">
+        <v>1.4</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D13" s="6">
+        <v>3</v>
+      </c>
+      <c r="E13" s="6">
+        <v>1</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="8">
+        <v>44645</v>
+      </c>
+      <c r="I13" s="8">
+        <v>44647</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="85.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="7">
+      <c r="D14" s="6">
+        <v>4</v>
+      </c>
+      <c r="E14" s="6">
+        <v>1</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="8">
         <v>44639</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I14" s="8">
         <v>44643</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="7">
-        <v>44649</v>
-      </c>
-      <c r="I5" s="7">
-        <v>44649</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="100.8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="7">
-        <v>44640</v>
-      </c>
-      <c r="I6" s="7">
-        <v>44640</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7">
+    <row r="15" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>2.1</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="6">
         <v>2</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="7">
-        <v>44643</v>
-      </c>
-      <c r="I7" s="7">
-        <v>44646</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="100.8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="E15" s="6">
+        <v>2</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="8">
+        <v>44659</v>
+      </c>
+      <c r="I15" s="8">
+        <v>44662</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="6">
+        <v>1</v>
+      </c>
+      <c r="E16" s="6">
+        <v>2</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G16" s="6"/>
+      <c r="H16" s="8">
+        <v>44662</v>
+      </c>
+      <c r="I16" s="8">
+        <v>44662</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8">
+      <c r="D17" s="6">
         <v>2</v>
       </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8" s="3" t="s">
+      <c r="E17" s="6">
+        <v>2</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="G17" s="6"/>
+      <c r="H17" s="8">
+        <v>44661</v>
+      </c>
+      <c r="I17" s="8">
+        <v>44661</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>2.4</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="7">
-        <v>44642</v>
-      </c>
-      <c r="I8" s="7">
-        <v>44644</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="100.8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="D18" s="6">
+        <v>3</v>
+      </c>
+      <c r="E18" s="6">
+        <v>2</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="G18" s="6"/>
+      <c r="H18" s="8">
+        <v>44662</v>
+      </c>
+      <c r="I18" s="8">
+        <v>44662</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="69" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B9" t="s">
+      <c r="D19" s="6">
+        <v>2</v>
+      </c>
+      <c r="E19" s="6">
+        <v>2</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="G19" s="6"/>
+      <c r="H19" s="8">
+        <v>44662</v>
+      </c>
+      <c r="I19" s="8">
+        <v>44662</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>2.6</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9">
+      <c r="D20" s="6">
+        <v>3</v>
+      </c>
+      <c r="E20" s="6">
         <v>2</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H9" s="7">
-        <v>44642</v>
-      </c>
-      <c r="I9" s="7">
-        <v>44644</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="93.6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10">
-        <v>3</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H10" s="7">
-        <v>44642</v>
-      </c>
-      <c r="I10" s="7">
-        <v>44648</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11">
-        <v>3</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H11" s="7">
-        <v>44639</v>
-      </c>
-      <c r="I11" s="7">
-        <v>44641</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="115.2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12">
-        <v>3</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H12" s="7">
-        <v>44642</v>
-      </c>
-      <c r="I12" s="7">
-        <v>44643</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="100.8" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
-        <v>2.4</v>
-      </c>
-      <c r="B13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13">
-        <v>3</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H13" s="7">
-        <v>44645</v>
-      </c>
-      <c r="I13" s="7">
-        <v>44647</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="100.8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>55</v>
-      </c>
-      <c r="B14" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14">
-        <v>4</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="H14" s="7">
-        <v>44639</v>
-      </c>
-      <c r="I14" s="7">
-        <v>44643</v>
+      <c r="F20" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G20" s="6"/>
+      <c r="H20" s="8">
+        <v>44662</v>
+      </c>
+      <c r="I20" s="8">
+        <v>44662</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I14">
     <sortCondition ref="D2"/>
   </sortState>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100907E6F232737B64D83A9C2770594BDDA" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f4706eec18da39f8eebd50923e2d8b4a">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="981005c0-9b9d-48f3-a6c1-0f5645876659" xmlns:ns4="7f7f4e46-14cb-4eb7-b76f-89a86ee20a24" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e2f23e6df842ec9fb90ed9678175c348" ns3:_="" ns4:_="">
+    <xsd:import namespace="981005c0-9b9d-48f3-a6c1-0f5645876659"/>
+    <xsd:import namespace="7f7f4e46-14cb-4eb7-b76f-89a86ee20a24"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns4:SharingHintHash" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="981005c0-9b9d-48f3-a6c1-0f5645876659" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="11" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="12" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="13" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="14" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="15" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="16" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="17" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="7f7f4e46-14cb-4eb7-b76f-89a86ee20a24" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="18" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="19" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="SharingHintHash" ma:index="20" nillable="true" ma:displayName="Sharing Hint Hash" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA388C27-4C91-4327-847F-AA33F4A52265}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="981005c0-9b9d-48f3-a6c1-0f5645876659"/>
+    <ds:schemaRef ds:uri="7f7f4e46-14cb-4eb7-b76f-89a86ee20a24"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{88D20C73-E494-4F14-8F68-62A70B71FC03}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64447797-4383-4B1F-B8D1-E341F92051ED}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="981005c0-9b9d-48f3-a6c1-0f5645876659"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="7f7f4e46-14cb-4eb7-b76f-89a86ee20a24"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Docs/product backlog.xlsx
+++ b/Docs/product backlog.xlsx
@@ -249,7 +249,7 @@
   <si>
     <t xml:space="preserve">  As an airport staff
   I want to make sure that I can and only I can exit this software
-  So that the check-in system can run safe</t>
+  So that the check-in system can run in safe environment</t>
   </si>
   <si>
     <t>- Verify that the software should be killed at any circumstances
@@ -265,7 +265,7 @@
   </si>
   <si>
     <t>- Verify that all flights are displayed correctly
-- Verify that flight info card are categorized by booking numbers</t>
+- Verify that flight info card is categorized by booking numbers</t>
   </si>
   <si>
     <t>Add planes info</t>
@@ -283,11 +283,11 @@
   </si>
   <si>
     <t xml:space="preserve">  As a airport manager
-  I want to equipt the software with fancy animations
-  So that my passengers can have silky smooth experiences</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Verify that no bugs occur
+  I want to equip the software with fancy animations
+  So that my passengers can have silky smooth experience</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Verify that no bug occur
 - Verify that the animation can run like silky chocolate </t>
   </si>
   <si>
@@ -296,7 +296,7 @@
   <si>
     <t xml:space="preserve">  As a passenger
   I want to know the current time when I use the software
-  So that I can campare times conveniently</t>
+  So that I can compare time conveniently</t>
   </si>
   <si>
     <t>- Verify that the clock wouldn't stop</t>
@@ -1336,8 +1336,8 @@
   <sheetPr/>
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" zoomScale="126" zoomScaleNormal="126" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -1735,7 +1735,7 @@
       </c>
     </row>
     <row r="15" ht="66" spans="1:9">
-      <c r="A15" s="5">
+      <c r="A15" s="9">
         <v>2.1</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -1762,7 +1762,7 @@
       </c>
     </row>
     <row r="16" ht="66" spans="1:9">
-      <c r="A16" s="5">
+      <c r="A16" s="9">
         <v>2.2</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -1789,7 +1789,7 @@
       </c>
     </row>
     <row r="17" ht="66" spans="1:9">
-      <c r="A17" s="5">
+      <c r="A17" s="9">
         <v>2.3</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -1816,7 +1816,7 @@
       </c>
     </row>
     <row r="18" ht="53" spans="1:9">
-      <c r="A18" s="5">
+      <c r="A18" s="9">
         <v>2.4</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -1843,7 +1843,7 @@
       </c>
     </row>
     <row r="19" ht="66" spans="1:9">
-      <c r="A19" s="5">
+      <c r="A19" s="9">
         <v>2.5</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -1870,7 +1870,7 @@
       </c>
     </row>
     <row r="20" ht="66" spans="1:9">
-      <c r="A20" s="5">
+      <c r="A20" s="9">
         <v>2.6</v>
       </c>
       <c r="B20" s="5" t="s">

--- a/Docs/product backlog.xlsx
+++ b/Docs/product backlog.xlsx
@@ -200,7 +200,7 @@
 So that I can find my own luggage by checking the tag on my suitcase, and the baggage won’t be taken in error</t>
   </si>
   <si>
-    <t xml:space="preserve">- Varify that the tag has the information including the surname of the passenger and the number of the baggage </t>
+    <t xml:space="preserve">- Verify that the tag has the information including the surname of the passenger and the number of the baggage </t>
   </si>
   <si>
     <t>Back-end system</t>
@@ -1336,8 +1336,8 @@
   <sheetPr/>
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="126" zoomScaleNormal="126" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:A20"/>
+    <sheetView tabSelected="1" zoomScale="126" zoomScaleNormal="126" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>

--- a/Docs/product backlog.xlsx
+++ b/Docs/product backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13920"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="80">
   <si>
     <t>Story ID</t>
   </si>
@@ -300,6 +300,18 @@
   </si>
   <si>
     <t>- Verify that the clock wouldn't stop</t>
+  </si>
+  <si>
+    <t>Add QR code</t>
+  </si>
+  <si>
+    <t>As a passenger
+I want a QR code at the final page
+So that I can get more information about my trip on the website of the airline</t>
+  </si>
+  <si>
+    <t>-Verify that the QR code is generated by the name of user's airline automatically
+-Verify that the information in the QR code is correct</t>
   </si>
 </sst>
 </file>
@@ -308,9 +320,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -334,7 +346,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -344,6 +370,21 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -355,8 +396,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -364,13 +421,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -384,6 +434,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -392,8 +458,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -409,38 +476,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -452,37 +495,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -499,13 +511,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -517,19 +655,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -541,139 +679,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -702,11 +714,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -735,47 +764,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -799,158 +787,185 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="36" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -959,29 +974,38 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="47" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -989,54 +1013,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
@@ -1332,25 +1356,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="126" zoomScaleNormal="126" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" zoomScale="126" zoomScaleNormal="126" topLeftCell="C18" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="10.8846153846154" style="2" customWidth="1"/>
-    <col min="2" max="2" width="26.3365384615385" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.8888888888889" style="2" customWidth="1"/>
+    <col min="2" max="2" width="26.3333333333333" style="2" customWidth="1"/>
     <col min="3" max="3" width="36" style="2" customWidth="1"/>
     <col min="4" max="4" width="9" style="2"/>
-    <col min="5" max="5" width="21.8846153846154" style="2" customWidth="1"/>
-    <col min="6" max="6" width="37.6634615384615" style="3" customWidth="1"/>
-    <col min="7" max="7" width="6.10576923076923" style="2" customWidth="1"/>
-    <col min="8" max="8" width="24.8846153846154" style="2" customWidth="1"/>
-    <col min="9" max="9" width="26.3365384615385" style="2" customWidth="1"/>
+    <col min="5" max="5" width="21.8888888888889" style="2" customWidth="1"/>
+    <col min="6" max="6" width="37.6666666666667" style="3" customWidth="1"/>
+    <col min="7" max="7" width="6.10185185185185" style="2" customWidth="1"/>
+    <col min="8" max="8" width="24.8888888888889" style="2" customWidth="1"/>
+    <col min="9" max="9" width="26.3333333333333" style="2" customWidth="1"/>
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1370,7 +1394,7 @@
       <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="4" t="s">
@@ -1383,517 +1407,544 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="66" spans="1:9">
-      <c r="A2" s="5" t="s">
+    <row r="2" ht="69" spans="1:9">
+      <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="6">
         <v>1</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="6">
         <v>1</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="12">
+      <c r="G2" s="6"/>
+      <c r="H2" s="9">
         <v>44638</v>
       </c>
-      <c r="I2" s="12">
+      <c r="I2" s="9">
         <v>44644</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="66" spans="1:9">
-      <c r="A3" s="7" t="s">
+    <row r="3" s="1" customFormat="1" ht="69" spans="1:9">
+      <c r="A3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="10">
         <v>1</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="10">
         <v>1</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="14">
+      <c r="G3" s="10"/>
+      <c r="H3" s="13">
         <v>44639</v>
       </c>
-      <c r="I3" s="14">
+      <c r="I3" s="13">
         <v>44641</v>
       </c>
     </row>
-    <row r="4" ht="93" spans="1:9">
-      <c r="A4" s="5" t="s">
+    <row r="4" ht="96.6" spans="1:9">
+      <c r="A4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="6">
         <v>1</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="6">
         <v>1</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="12">
+      <c r="G4" s="6"/>
+      <c r="H4" s="9">
         <v>44639</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="9">
         <v>44643</v>
       </c>
     </row>
-    <row r="5" ht="53" spans="1:9">
-      <c r="A5" s="5" t="s">
+    <row r="5" ht="41.4" spans="1:9">
+      <c r="A5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="6">
         <v>1</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="6">
         <v>1</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="12">
+      <c r="G5" s="6"/>
+      <c r="H5" s="9">
         <v>44649</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="9">
         <v>44649</v>
       </c>
     </row>
     <row r="6" ht="108.6" customHeight="1" spans="1:9">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="6">
         <v>1</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="6">
         <v>1</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="12">
+      <c r="G6" s="6"/>
+      <c r="H6" s="9">
         <v>44640</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="9">
         <v>44640</v>
       </c>
     </row>
-    <row r="7" ht="53" spans="1:9">
-      <c r="A7" s="5" t="s">
+    <row r="7" ht="41.4" spans="1:9">
+      <c r="A7" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="6">
         <v>2</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="6">
         <v>1</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="12">
+      <c r="G7" s="6"/>
+      <c r="H7" s="9">
         <v>44643</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="9">
         <v>44646</v>
       </c>
     </row>
-    <row r="8" ht="93" spans="1:9">
-      <c r="A8" s="5" t="s">
+    <row r="8" ht="96.6" spans="1:9">
+      <c r="A8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="6">
         <v>2</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="6">
         <v>1</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="12">
+      <c r="G8" s="6"/>
+      <c r="H8" s="9">
         <v>44642</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="9">
         <v>44644</v>
       </c>
     </row>
-    <row r="9" ht="93" spans="1:9">
-      <c r="A9" s="5" t="s">
+    <row r="9" ht="96.6" spans="1:9">
+      <c r="A9" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="6">
         <v>2</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="6">
         <v>1</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="12">
+      <c r="G9" s="6"/>
+      <c r="H9" s="9">
         <v>44642</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I9" s="9">
         <v>44644</v>
       </c>
     </row>
-    <row r="10" ht="66" spans="1:9">
-      <c r="A10" s="5" t="s">
+    <row r="10" ht="69" spans="1:9">
+      <c r="A10" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="6">
         <v>3</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="6">
         <v>1</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="12">
+      <c r="G10" s="6"/>
+      <c r="H10" s="9">
         <v>44642</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="9">
         <v>44648</v>
       </c>
     </row>
-    <row r="11" ht="80" spans="1:9">
-      <c r="A11" s="5" t="s">
+    <row r="11" ht="82.8" spans="1:9">
+      <c r="A11" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="6">
         <v>3</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="6">
         <v>1</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="12">
+      <c r="G11" s="6"/>
+      <c r="H11" s="9">
         <v>44639</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="9">
         <v>44641</v>
       </c>
     </row>
-    <row r="12" ht="80" spans="1:9">
-      <c r="A12" s="5" t="s">
+    <row r="12" ht="82.8" spans="1:9">
+      <c r="A12" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="6">
         <v>3</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="6">
         <v>1</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="12">
+      <c r="G12" s="6"/>
+      <c r="H12" s="9">
         <v>44642</v>
       </c>
-      <c r="I12" s="12">
+      <c r="I12" s="9">
         <v>44643</v>
       </c>
     </row>
-    <row r="13" ht="80" spans="1:9">
-      <c r="A13" s="9">
+    <row r="13" ht="82.8" spans="1:9">
+      <c r="A13" s="15">
         <v>1.4</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="6">
         <v>3</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="6">
         <v>1</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="12">
+      <c r="G13" s="6"/>
+      <c r="H13" s="9">
         <v>44645</v>
       </c>
-      <c r="I13" s="12">
+      <c r="I13" s="9">
         <v>44647</v>
       </c>
     </row>
     <row r="14" ht="85.2" customHeight="1" spans="1:9">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="6">
         <v>4</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="6">
         <v>1</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="F14" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="12">
+      <c r="G14" s="6"/>
+      <c r="H14" s="9">
         <v>44639</v>
       </c>
-      <c r="I14" s="12">
+      <c r="I14" s="9">
         <v>44643</v>
       </c>
     </row>
-    <row r="15" ht="66" spans="1:9">
-      <c r="A15" s="9">
+    <row r="15" ht="55.2" spans="1:9">
+      <c r="A15" s="15">
         <v>2.1</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="6">
         <v>2</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="6">
         <v>2</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="F15" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="12">
+      <c r="G15" s="6"/>
+      <c r="H15" s="9">
         <v>44659</v>
       </c>
-      <c r="I15" s="12">
+      <c r="I15" s="9">
         <v>44662</v>
       </c>
     </row>
-    <row r="16" ht="66" spans="1:9">
-      <c r="A16" s="9">
+    <row r="16" ht="69" spans="1:9">
+      <c r="A16" s="15">
         <v>2.2</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="6">
         <v>1</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="6">
         <v>2</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="F16" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="G16" s="5"/>
-      <c r="H16" s="12">
+      <c r="G16" s="6"/>
+      <c r="H16" s="9">
         <v>44662</v>
       </c>
-      <c r="I16" s="12">
+      <c r="I16" s="9">
         <v>44662</v>
       </c>
     </row>
-    <row r="17" ht="66" spans="1:9">
-      <c r="A17" s="9">
+    <row r="17" ht="55.2" spans="1:9">
+      <c r="A17" s="15">
         <v>2.3</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="6">
         <v>2</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="6">
         <v>2</v>
       </c>
-      <c r="F17" s="15" t="s">
+      <c r="F17" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="G17" s="5"/>
-      <c r="H17" s="12">
+      <c r="G17" s="6"/>
+      <c r="H17" s="9">
         <v>44661</v>
       </c>
-      <c r="I17" s="12">
+      <c r="I17" s="9">
         <v>44661</v>
       </c>
     </row>
-    <row r="18" ht="53" spans="1:9">
-      <c r="A18" s="9">
+    <row r="18" ht="55.2" spans="1:9">
+      <c r="A18" s="15">
         <v>2.4</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="6">
         <v>3</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="6">
         <v>2</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="F18" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="G18" s="5"/>
-      <c r="H18" s="12">
+      <c r="G18" s="6"/>
+      <c r="H18" s="9">
         <v>44662</v>
       </c>
-      <c r="I18" s="12">
+      <c r="I18" s="9">
         <v>44662</v>
       </c>
     </row>
-    <row r="19" ht="66" spans="1:9">
-      <c r="A19" s="9">
+    <row r="19" ht="69" spans="1:9">
+      <c r="A19" s="15">
         <v>2.5</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="6">
         <v>2</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="6">
         <v>2</v>
       </c>
-      <c r="F19" s="15" t="s">
+      <c r="F19" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="G19" s="5"/>
-      <c r="H19" s="12">
+      <c r="G19" s="6"/>
+      <c r="H19" s="9">
         <v>44662</v>
       </c>
-      <c r="I19" s="12">
+      <c r="I19" s="9">
         <v>44662</v>
       </c>
     </row>
-    <row r="20" ht="66" spans="1:9">
-      <c r="A20" s="9">
+    <row r="20" ht="55.2" spans="1:9">
+      <c r="A20" s="15">
         <v>2.6</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="6">
         <v>3</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="6">
         <v>2</v>
       </c>
-      <c r="F20" s="15" t="s">
+      <c r="F20" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="G20" s="5"/>
-      <c r="H20" s="12">
+      <c r="G20" s="6"/>
+      <c r="H20" s="9">
         <v>44662</v>
       </c>
-      <c r="I20" s="12">
+      <c r="I20" s="9">
         <v>44662</v>
+      </c>
+    </row>
+    <row r="21" ht="60" customHeight="1" spans="1:9">
+      <c r="A21" s="16">
+        <v>2.7</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" s="17">
+        <v>4</v>
+      </c>
+      <c r="E21" s="17">
+        <v>2</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="G21" s="17"/>
+      <c r="H21" s="9">
+        <v>44664</v>
+      </c>
+      <c r="I21" s="9">
+        <v>44664</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/product backlog.xlsx
+++ b/Docs/product backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="19200" windowHeight="17020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101">
   <si>
     <t>Story ID</t>
   </si>
@@ -138,7 +138,7 @@
     <t>Printing baggage tickets</t>
   </si>
   <si>
-    <t>As a airport staff
+    <t>As an airport staff
 I want a ticket that needs to be attached to the check-in baggage
 So that I can record and check the weight and contents of the luggage during the security check to ensure the safety of the flight</t>
   </si>
@@ -206,7 +206,7 @@
     <t>Back-end system</t>
   </si>
   <si>
-    <t xml:space="preserve">  As a Airline staff
+    <t xml:space="preserve">  As an Airline staff
   I want to view the list of passengers and their check-in status
   So that I can provide info to other departments</t>
   </si>
@@ -282,7 +282,7 @@
     <t>Add animation</t>
   </si>
   <si>
-    <t xml:space="preserve">  As a airport manager
+    <t xml:space="preserve">  As an airport manager
   I want to equip the software with fancy animations
   So that my passengers can have silky smooth experience</t>
   </si>
@@ -312,6 +312,85 @@
   <si>
     <t>-Verify that the QR code is generated by the name of user's airline automatically
 -Verify that the information in the QR code is correct</t>
+  </si>
+  <si>
+    <t>Disable main when when admin console is called</t>
+  </si>
+  <si>
+    <t>As an airport staff
+I want to lock the main frame when admin console is active
+So that the main programmed is protected</t>
+  </si>
+  <si>
+    <t>- Verify that there is no reponse if click the area out of admin console</t>
+  </si>
+  <si>
+    <t>Read config from memory</t>
+  </si>
+  <si>
+    <t>As an airline manager
+I want my system to be configuration-consistant 
+So that my customers will have a stable environment when they check-in</t>
+  </si>
+  <si>
+    <t>- Verify that whether the system keeps stable when configuration changes</t>
+  </si>
+  <si>
+    <t>Add exit timer</t>
+  </si>
+  <si>
+    <t>As an airport manager
+I want to exit(lock) the software if idle for some ttime 
+So that energy is saved</t>
+  </si>
+  <si>
+    <t>- Verify that software returns to welcome page after 120 seconds</t>
+  </si>
+  <si>
+    <t>Better check-in card display logic</t>
+  </si>
+  <si>
+    <t>As an airline managerI want to prevent passengers from checking in far-furture flights
+So that we are not disrupted with non-urgent information</t>
+  </si>
+  <si>
+    <t>-Verify that flights in two days are not displayed at flight selection page</t>
+  </si>
+  <si>
+    <t>Add custom preferences for different airline companys</t>
+  </si>
+  <si>
+    <t>As an airline staff
+I want enable special preference that my company provides
+So that passengers can use out product</t>
+  </si>
+  <si>
+    <t>- Verify that an interface is provided to load different preference settings
+- Verify that when settings changes, preferences changes, too</t>
+  </si>
+  <si>
+    <t>Better seat selection page</t>
+  </si>
+  <si>
+    <t>As an airline staff
+I want seat selection page to support any seat pattern
+So that it can display different number of columns of seats</t>
+  </si>
+  <si>
+    <t>- Verify that seat pattern is included in database
+- Verify that different seat pattern gives different seat display</t>
+  </si>
+  <si>
+    <t>Add custom theme color</t>
+  </si>
+  <si>
+    <t>As an airport staff
+I want to be able to choose the theme color
+So that I can use the color that fits the airport</t>
+  </si>
+  <si>
+    <t>- Verify that config includes theme color entry
+- Verify that theme color changes according to config settings</t>
   </si>
 </sst>
 </file>
@@ -319,10 +398,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -352,6 +431,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -359,23 +446,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -388,17 +476,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -412,55 +491,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -475,10 +524,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -490,7 +539,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -511,181 +590,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -714,27 +793,19 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -751,24 +822,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -805,6 +858,32 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -814,197 +893,179 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="36" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="47" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1013,54 +1074,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
@@ -1356,29 +1417,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="126" zoomScaleNormal="126" topLeftCell="C18" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="10.8888888888889" style="2" customWidth="1"/>
-    <col min="2" max="2" width="26.3333333333333" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="26.375" style="2" customWidth="1"/>
     <col min="3" max="3" width="36" style="2" customWidth="1"/>
     <col min="4" max="4" width="9" style="2"/>
-    <col min="5" max="5" width="21.8888888888889" style="2" customWidth="1"/>
-    <col min="6" max="6" width="37.6666666666667" style="3" customWidth="1"/>
-    <col min="7" max="7" width="6.10185185185185" style="2" customWidth="1"/>
-    <col min="8" max="8" width="24.8888888888889" style="2" customWidth="1"/>
-    <col min="9" max="9" width="26.3333333333333" style="2" customWidth="1"/>
+    <col min="5" max="5" width="21.875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="37.625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="6.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="24.875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="26.375" style="2" customWidth="1"/>
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" ht="27" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1394,7 +1455,7 @@
       <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="4" t="s">
@@ -1407,545 +1468,727 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="69" spans="1:9">
-      <c r="A2" s="6" t="s">
+    <row r="2" ht="66" spans="1:9">
+      <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <v>1</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <v>1</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="9">
+      <c r="G2" s="5"/>
+      <c r="H2" s="10">
         <v>44638</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="10">
         <v>44644</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="69" spans="1:9">
-      <c r="A3" s="10" t="s">
+    <row r="3" s="1" customFormat="1" ht="66" spans="1:9">
+      <c r="A3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="6">
         <v>1</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="6">
         <v>1</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="13">
+      <c r="G3" s="6"/>
+      <c r="H3" s="12">
         <v>44639</v>
       </c>
-      <c r="I3" s="13">
+      <c r="I3" s="12">
         <v>44641</v>
       </c>
     </row>
-    <row r="4" ht="96.6" spans="1:9">
-      <c r="A4" s="6" t="s">
+    <row r="4" ht="93" spans="1:9">
+      <c r="A4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>1</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>1</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="9">
+      <c r="G4" s="5"/>
+      <c r="H4" s="10">
         <v>44639</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="10">
         <v>44643</v>
       </c>
     </row>
-    <row r="5" ht="41.4" spans="1:9">
-      <c r="A5" s="6" t="s">
+    <row r="5" ht="53" spans="1:9">
+      <c r="A5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>1</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>1</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="9">
+      <c r="G5" s="5"/>
+      <c r="H5" s="10">
         <v>44649</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="10">
         <v>44649</v>
       </c>
     </row>
     <row r="6" ht="108.6" customHeight="1" spans="1:9">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>1</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>1</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="9">
+      <c r="G6" s="5"/>
+      <c r="H6" s="10">
         <v>44640</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="10">
         <v>44640</v>
       </c>
     </row>
-    <row r="7" ht="41.4" spans="1:9">
-      <c r="A7" s="6" t="s">
+    <row r="7" ht="53" spans="1:9">
+      <c r="A7" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>2</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <v>1</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="9">
+      <c r="G7" s="5"/>
+      <c r="H7" s="10">
         <v>44643</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="10">
         <v>44646</v>
       </c>
     </row>
-    <row r="8" ht="96.6" spans="1:9">
-      <c r="A8" s="6" t="s">
+    <row r="8" ht="93" spans="1:9">
+      <c r="A8" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>2</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <v>1</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="9">
+      <c r="G8" s="5"/>
+      <c r="H8" s="10">
         <v>44642</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="10">
         <v>44644</v>
       </c>
     </row>
-    <row r="9" ht="96.6" spans="1:9">
-      <c r="A9" s="6" t="s">
+    <row r="9" ht="93" spans="1:9">
+      <c r="A9" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <v>2</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <v>1</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="9">
+      <c r="G9" s="5"/>
+      <c r="H9" s="10">
         <v>44642</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="10">
         <v>44644</v>
       </c>
     </row>
-    <row r="10" ht="69" spans="1:9">
-      <c r="A10" s="6" t="s">
+    <row r="10" ht="66" spans="1:9">
+      <c r="A10" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>3</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <v>1</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="9">
+      <c r="G10" s="5"/>
+      <c r="H10" s="10">
         <v>44642</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="10">
         <v>44648</v>
       </c>
     </row>
-    <row r="11" ht="82.8" spans="1:9">
-      <c r="A11" s="6" t="s">
+    <row r="11" ht="80" spans="1:9">
+      <c r="A11" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <v>3</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="5">
         <v>1</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="9">
+      <c r="G11" s="5"/>
+      <c r="H11" s="10">
         <v>44639</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="10">
         <v>44641</v>
       </c>
     </row>
-    <row r="12" ht="82.8" spans="1:9">
-      <c r="A12" s="6" t="s">
+    <row r="12" ht="80" spans="1:9">
+      <c r="A12" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="5">
         <v>3</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="5">
         <v>1</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="9">
+      <c r="G12" s="5"/>
+      <c r="H12" s="10">
         <v>44642</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="10">
         <v>44643</v>
       </c>
     </row>
-    <row r="13" ht="82.8" spans="1:9">
-      <c r="A13" s="15">
+    <row r="13" ht="80" spans="1:9">
+      <c r="A13" s="7">
         <v>1.4</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="5">
         <v>3</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="5">
         <v>1</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="9">
+      <c r="G13" s="5"/>
+      <c r="H13" s="10">
         <v>44645</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="10">
         <v>44647</v>
       </c>
     </row>
-    <row r="14" ht="85.2" customHeight="1" spans="1:9">
-      <c r="A14" s="6" t="s">
+    <row r="14" ht="85.15" customHeight="1" spans="1:9">
+      <c r="A14" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="5">
         <v>4</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="5">
         <v>1</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="9">
+      <c r="G14" s="5"/>
+      <c r="H14" s="10">
         <v>44639</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="10">
         <v>44643</v>
       </c>
     </row>
-    <row r="15" ht="55.2" spans="1:9">
-      <c r="A15" s="15">
+    <row r="15" ht="66" spans="1:9">
+      <c r="A15" s="7">
         <v>2.1</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="5">
         <v>2</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="5">
         <v>2</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="F15" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="9">
+      <c r="G15" s="5"/>
+      <c r="H15" s="10">
         <v>44659</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="10">
         <v>44662</v>
       </c>
     </row>
-    <row r="16" ht="69" spans="1:9">
-      <c r="A16" s="15">
+    <row r="16" ht="66" spans="1:9">
+      <c r="A16" s="7">
         <v>2.2</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="5">
         <v>1</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="5">
         <v>2</v>
       </c>
-      <c r="F16" s="14" t="s">
+      <c r="F16" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="G16" s="6"/>
-      <c r="H16" s="9">
+      <c r="G16" s="5"/>
+      <c r="H16" s="10">
         <v>44662</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I16" s="10">
         <v>44662</v>
       </c>
     </row>
-    <row r="17" ht="55.2" spans="1:9">
-      <c r="A17" s="15">
+    <row r="17" ht="66" spans="1:9">
+      <c r="A17" s="7">
         <v>2.3</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="5">
         <v>2</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="5">
         <v>2</v>
       </c>
-      <c r="F17" s="14" t="s">
+      <c r="F17" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="G17" s="6"/>
-      <c r="H17" s="9">
+      <c r="G17" s="5"/>
+      <c r="H17" s="10">
         <v>44661</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I17" s="10">
         <v>44661</v>
       </c>
     </row>
-    <row r="18" ht="55.2" spans="1:9">
-      <c r="A18" s="15">
+    <row r="18" ht="53" spans="1:9">
+      <c r="A18" s="7">
         <v>2.4</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="5">
         <v>3</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="5">
         <v>2</v>
       </c>
-      <c r="F18" s="14" t="s">
+      <c r="F18" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="G18" s="6"/>
-      <c r="H18" s="9">
+      <c r="G18" s="5"/>
+      <c r="H18" s="10">
         <v>44662</v>
       </c>
-      <c r="I18" s="9">
+      <c r="I18" s="10">
         <v>44662</v>
       </c>
     </row>
-    <row r="19" ht="69" spans="1:9">
-      <c r="A19" s="15">
+    <row r="19" ht="66" spans="1:9">
+      <c r="A19" s="7">
         <v>2.5</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="5">
         <v>2</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="5">
         <v>2</v>
       </c>
-      <c r="F19" s="14" t="s">
+      <c r="F19" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="G19" s="6"/>
-      <c r="H19" s="9">
+      <c r="G19" s="5"/>
+      <c r="H19" s="10">
         <v>44662</v>
       </c>
-      <c r="I19" s="9">
+      <c r="I19" s="10">
         <v>44662</v>
       </c>
     </row>
-    <row r="20" ht="55.2" spans="1:9">
-      <c r="A20" s="15">
+    <row r="20" ht="66" spans="1:9">
+      <c r="A20" s="7">
         <v>2.6</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="5">
         <v>3</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="5">
         <v>2</v>
       </c>
-      <c r="F20" s="14" t="s">
+      <c r="F20" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="G20" s="6"/>
-      <c r="H20" s="9">
+      <c r="G20" s="5"/>
+      <c r="H20" s="10">
         <v>44662</v>
       </c>
-      <c r="I20" s="9">
+      <c r="I20" s="10">
         <v>44662</v>
       </c>
     </row>
     <row r="21" ht="60" customHeight="1" spans="1:9">
-      <c r="A21" s="16">
+      <c r="A21" s="7">
         <v>2.7</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D21" s="17">
+      <c r="D21" s="5">
         <v>4</v>
       </c>
-      <c r="E21" s="17">
+      <c r="E21" s="5">
         <v>2</v>
       </c>
-      <c r="F21" s="19" t="s">
+      <c r="F21" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="G21" s="17"/>
-      <c r="H21" s="9">
+      <c r="G21" s="5"/>
+      <c r="H21" s="10">
         <v>44664</v>
       </c>
-      <c r="I21" s="9">
+      <c r="I21" s="10">
         <v>44664</v>
       </c>
+    </row>
+    <row r="22" ht="66" spans="1:9">
+      <c r="A22" s="7">
+        <v>3.1</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" s="5">
+        <v>2</v>
+      </c>
+      <c r="E22" s="5">
+        <v>3</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="G22" s="5"/>
+      <c r="H22" s="10">
+        <v>44666</v>
+      </c>
+      <c r="I22" s="10">
+        <v>44667</v>
+      </c>
+    </row>
+    <row r="23" ht="66" spans="1:9">
+      <c r="A23" s="7">
+        <v>3.2</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" s="5">
+        <v>2</v>
+      </c>
+      <c r="E23" s="5">
+        <v>3</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="G23" s="5"/>
+      <c r="H23" s="10">
+        <v>44669</v>
+      </c>
+      <c r="I23" s="10">
+        <v>44670</v>
+      </c>
+    </row>
+    <row r="24" ht="53" spans="1:9">
+      <c r="A24" s="7">
+        <v>3.3</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" s="5">
+        <v>2</v>
+      </c>
+      <c r="E24" s="5">
+        <v>3</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+    </row>
+    <row r="25" ht="66" spans="1:9">
+      <c r="A25" s="7">
+        <v>3.4</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D25" s="5">
+        <v>2</v>
+      </c>
+      <c r="E25" s="5">
+        <v>3</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="G25"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+    </row>
+    <row r="26" ht="66" customHeight="1" spans="1:9">
+      <c r="A26" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D26" s="5">
+        <v>2</v>
+      </c>
+      <c r="E26" s="5">
+        <v>3</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="G26"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" ht="66" spans="1:9">
+      <c r="A27" s="7">
+        <v>3.6</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D27" s="5">
+        <v>1</v>
+      </c>
+      <c r="E27" s="5">
+        <v>3</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="G27"/>
+      <c r="H27" s="10">
+        <v>44670</v>
+      </c>
+      <c r="I27" s="5"/>
+    </row>
+    <row r="28" ht="66" spans="1:9">
+      <c r="A28" s="7">
+        <v>3.7</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D28" s="5">
+        <v>3</v>
+      </c>
+      <c r="E28" s="5">
+        <v>3</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G28"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="7"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
     </row>
   </sheetData>
   <sortState ref="A2:I14">

--- a/Docs/product backlog.xlsx
+++ b/Docs/product backlog.xlsx
@@ -399,9 +399,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -425,9 +425,60 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -439,6 +490,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -454,46 +551,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -506,74 +574,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -590,31 +590,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -626,43 +752,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -674,97 +764,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -796,73 +796,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -885,154 +820,219 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1422,7 +1422,7 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>

--- a/Docs/product backlog.xlsx
+++ b/Docs/product backlog.xlsx
@@ -302,16 +302,16 @@
     <t>- Verify that the clock wouldn't stop</t>
   </si>
   <si>
-    <t>Add QR code</t>
-  </si>
-  <si>
-    <t>As a passenger
-I want a QR code at the final page
-So that I can get more information about my trip on the website of the airline</t>
-  </si>
-  <si>
-    <t>-Verify that the QR code is generated by the name of user's airline automatically
--Verify that the information in the QR code is correct</t>
+    <t>Better seat selection page</t>
+  </si>
+  <si>
+    <t>As an airline staff
+I want seat selection page to support any seat pattern
+So that it can display different number of columns of seats</t>
+  </si>
+  <si>
+    <t>- Verify that seat pattern is included in database
+- Verify that different seat pattern gives different seat display</t>
   </si>
   <si>
     <t>Disable main when when admin console is called</t>
@@ -340,7 +340,7 @@
   </si>
   <si>
     <t>As an airport manager
-I want to exit(lock) the software if idle for some ttime 
+I want to exit(lock) the software if idle for some time 
 So that energy is saved</t>
   </si>
   <si>
@@ -350,11 +350,23 @@
     <t>Better check-in card display logic</t>
   </si>
   <si>
-    <t>As an airline managerI want to prevent passengers from checking in far-furture flights
+    <t>As an airline manager 
+I want to prevent passengers from checking in far-furture flights
 So that we are not disrupted with non-urgent information</t>
   </si>
   <si>
-    <t>-Verify that flights in two days are not displayed at flight selection page</t>
+    <t>-Verify that flights in 1 day are not displayed at flight selection page</t>
+  </si>
+  <si>
+    <t>Add airport name to config</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  As an airline  manager       
+  I want pre-store some airports’ names in the configuration
+  So that passengers can easily choose the airport they want to go </t>
+  </si>
+  <si>
+    <t>-Verify that config includes airports’ name</t>
   </si>
   <si>
     <t>Add custom preferences for different airline companys</t>
@@ -367,18 +379,6 @@
   <si>
     <t>- Verify that an interface is provided to load different preference settings
 - Verify that when settings changes, preferences changes, too</t>
-  </si>
-  <si>
-    <t>Better seat selection page</t>
-  </si>
-  <si>
-    <t>As an airline staff
-I want seat selection page to support any seat pattern
-So that it can display different number of columns of seats</t>
-  </si>
-  <si>
-    <t>- Verify that seat pattern is included in database
-- Verify that different seat pattern gives different seat display</t>
   </si>
   <si>
     <t>Add custom theme color</t>
@@ -398,12 +398,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -425,6 +425,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -438,6 +444,114 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -446,14 +560,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -467,113 +574,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -596,49 +602,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -650,115 +764,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -802,17 +808,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -821,7 +821,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -841,6 +841,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -852,17 +867,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -881,165 +896,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1053,6 +1060,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="47" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1069,6 +1082,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1419,10 +1435,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" zoomScale="128" zoomScaleNormal="128" topLeftCell="C21" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -1432,7 +1448,7 @@
     <col min="3" max="3" width="36" style="2" customWidth="1"/>
     <col min="4" max="4" width="9" style="2"/>
     <col min="5" max="5" width="21.875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="37.625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="37.625" style="4" customWidth="1"/>
     <col min="7" max="7" width="6.125" style="2" customWidth="1"/>
     <col min="8" max="8" width="24.875" style="2" customWidth="1"/>
     <col min="9" max="9" width="26.375" style="2" customWidth="1"/>
@@ -1440,758 +1456,743 @@
   </cols>
   <sheetData>
     <row r="1" ht="27" spans="1:9">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" ht="66" spans="1:9">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="6">
         <v>1</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="6">
         <v>1</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="10">
+      <c r="G2" s="6"/>
+      <c r="H2" s="13">
         <v>44638</v>
       </c>
-      <c r="I2" s="10">
+      <c r="I2" s="13">
         <v>44644</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="66" spans="1:9">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="7">
         <v>1</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="7">
         <v>1</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="12">
+      <c r="G3" s="7"/>
+      <c r="H3" s="15">
         <v>44639</v>
       </c>
-      <c r="I3" s="12">
+      <c r="I3" s="15">
         <v>44641</v>
       </c>
     </row>
     <row r="4" ht="93" spans="1:9">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="6">
         <v>1</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="6">
         <v>1</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="10">
+      <c r="G4" s="6"/>
+      <c r="H4" s="13">
         <v>44639</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="13">
         <v>44643</v>
       </c>
     </row>
     <row r="5" ht="53" spans="1:9">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="6">
         <v>1</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="6">
         <v>1</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="10">
+      <c r="G5" s="6"/>
+      <c r="H5" s="13">
         <v>44649</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="13">
         <v>44649</v>
       </c>
     </row>
     <row r="6" ht="108.6" customHeight="1" spans="1:9">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="6">
         <v>1</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="6">
         <v>1</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="10">
+      <c r="G6" s="6"/>
+      <c r="H6" s="13">
         <v>44640</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="13">
         <v>44640</v>
       </c>
     </row>
     <row r="7" ht="53" spans="1:9">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="6">
         <v>2</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="6">
         <v>1</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="10">
+      <c r="G7" s="6"/>
+      <c r="H7" s="13">
         <v>44643</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="13">
         <v>44646</v>
       </c>
     </row>
     <row r="8" ht="93" spans="1:9">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="6">
         <v>2</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="6">
         <v>1</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="10">
+      <c r="G8" s="6"/>
+      <c r="H8" s="13">
         <v>44642</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8" s="13">
         <v>44644</v>
       </c>
     </row>
     <row r="9" ht="93" spans="1:9">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="6">
         <v>2</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="6">
         <v>1</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="10">
+      <c r="G9" s="6"/>
+      <c r="H9" s="13">
         <v>44642</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="13">
         <v>44644</v>
       </c>
     </row>
     <row r="10" ht="66" spans="1:9">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="6">
         <v>3</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="6">
         <v>1</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="10">
+      <c r="G10" s="6"/>
+      <c r="H10" s="13">
         <v>44642</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="13">
         <v>44648</v>
       </c>
     </row>
     <row r="11" ht="80" spans="1:9">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="6">
         <v>3</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="6">
         <v>1</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="10">
+      <c r="G11" s="6"/>
+      <c r="H11" s="13">
         <v>44639</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I11" s="13">
         <v>44641</v>
       </c>
     </row>
     <row r="12" ht="80" spans="1:9">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="6">
         <v>3</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="6">
         <v>1</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="10">
+      <c r="G12" s="6"/>
+      <c r="H12" s="13">
         <v>44642</v>
       </c>
-      <c r="I12" s="10">
+      <c r="I12" s="13">
         <v>44643</v>
       </c>
     </row>
     <row r="13" ht="80" spans="1:9">
-      <c r="A13" s="7">
+      <c r="A13" s="8">
         <v>1.4</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="6">
         <v>3</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="6">
         <v>1</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="10">
+      <c r="G13" s="6"/>
+      <c r="H13" s="13">
         <v>44645</v>
       </c>
-      <c r="I13" s="10">
+      <c r="I13" s="13">
         <v>44647</v>
       </c>
     </row>
     <row r="14" ht="85.15" customHeight="1" spans="1:9">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="6">
         <v>4</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="6">
         <v>1</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="10">
+      <c r="G14" s="6"/>
+      <c r="H14" s="13">
         <v>44639</v>
       </c>
-      <c r="I14" s="10">
+      <c r="I14" s="13">
         <v>44643</v>
       </c>
     </row>
     <row r="15" ht="66" spans="1:9">
-      <c r="A15" s="7">
+      <c r="A15" s="8">
         <v>2.1</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="6">
         <v>2</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="6">
         <v>2</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="10">
+      <c r="G15" s="6"/>
+      <c r="H15" s="13">
         <v>44659</v>
       </c>
-      <c r="I15" s="10">
+      <c r="I15" s="13">
         <v>44662</v>
       </c>
     </row>
     <row r="16" ht="66" spans="1:9">
-      <c r="A16" s="7">
+      <c r="A16" s="8">
         <v>2.2</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="6">
         <v>1</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="6">
         <v>2</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="G16" s="5"/>
-      <c r="H16" s="10">
+      <c r="G16" s="6"/>
+      <c r="H16" s="13">
         <v>44662</v>
       </c>
-      <c r="I16" s="10">
+      <c r="I16" s="13">
         <v>44662</v>
       </c>
     </row>
     <row r="17" ht="66" spans="1:9">
-      <c r="A17" s="7">
+      <c r="A17" s="8">
         <v>2.3</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="6">
         <v>2</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="6">
         <v>2</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="G17" s="5"/>
-      <c r="H17" s="10">
+      <c r="G17" s="6"/>
+      <c r="H17" s="13">
         <v>44661</v>
       </c>
-      <c r="I17" s="10">
+      <c r="I17" s="13">
         <v>44661</v>
       </c>
     </row>
     <row r="18" ht="53" spans="1:9">
-      <c r="A18" s="7">
+      <c r="A18" s="8">
         <v>2.4</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="6">
         <v>3</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="6">
         <v>2</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="G18" s="5"/>
-      <c r="H18" s="10">
+      <c r="G18" s="6"/>
+      <c r="H18" s="13">
         <v>44662</v>
       </c>
-      <c r="I18" s="10">
+      <c r="I18" s="13">
         <v>44662</v>
       </c>
     </row>
     <row r="19" ht="66" spans="1:9">
-      <c r="A19" s="7">
+      <c r="A19" s="8">
         <v>2.5</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="6">
         <v>2</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="6">
         <v>2</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="F19" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="G19" s="5"/>
-      <c r="H19" s="10">
+      <c r="G19" s="6"/>
+      <c r="H19" s="13">
         <v>44662</v>
       </c>
-      <c r="I19" s="10">
+      <c r="I19" s="13">
         <v>44662</v>
       </c>
     </row>
     <row r="20" ht="66" spans="1:9">
-      <c r="A20" s="7">
+      <c r="A20" s="8">
         <v>2.6</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="6">
         <v>3</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="6">
         <v>2</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="F20" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="G20" s="5"/>
-      <c r="H20" s="10">
+      <c r="G20" s="6"/>
+      <c r="H20" s="13">
         <v>44662</v>
       </c>
-      <c r="I20" s="10">
+      <c r="I20" s="13">
         <v>44662</v>
       </c>
     </row>
-    <row r="21" ht="60" customHeight="1" spans="1:9">
-      <c r="A21" s="7">
-        <v>2.7</v>
-      </c>
-      <c r="B21" s="7" t="s">
+    <row r="21" s="2" customFormat="1" ht="66" spans="1:9">
+      <c r="A21" s="8">
+        <v>3.1</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D21" s="5">
-        <v>4</v>
-      </c>
-      <c r="E21" s="5">
+      <c r="D21" s="6">
+        <v>1</v>
+      </c>
+      <c r="E21" s="6">
+        <v>3</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="G21"/>
+      <c r="H21" s="13">
+        <v>44670</v>
+      </c>
+      <c r="I21" s="6"/>
+    </row>
+    <row r="22" ht="66" spans="1:9">
+      <c r="A22" s="8">
+        <v>3.2</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" s="6">
         <v>2</v>
       </c>
-      <c r="F21" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G21" s="5"/>
-      <c r="H21" s="10">
-        <v>44664</v>
-      </c>
-      <c r="I21" s="10">
-        <v>44664</v>
-      </c>
-    </row>
-    <row r="22" ht="66" spans="1:9">
-      <c r="A22" s="7">
-        <v>3.1</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D22" s="5">
+      <c r="E22" s="6">
+        <v>3</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="G22" s="6"/>
+      <c r="H22" s="13">
+        <v>44666</v>
+      </c>
+      <c r="I22" s="13">
+        <v>44667</v>
+      </c>
+    </row>
+    <row r="23" ht="66" spans="1:9">
+      <c r="A23" s="8">
+        <v>3.3</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" s="6">
         <v>2</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E23" s="6">
         <v>3</v>
       </c>
-      <c r="F22" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="G22" s="5"/>
-      <c r="H22" s="10">
-        <v>44666</v>
-      </c>
-      <c r="I22" s="10">
-        <v>44667</v>
-      </c>
-    </row>
-    <row r="23" ht="66" spans="1:9">
-      <c r="A23" s="7">
-        <v>3.2</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D23" s="5">
+      <c r="F23" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="G23" s="6"/>
+      <c r="H23" s="13">
+        <v>44669</v>
+      </c>
+      <c r="I23" s="13">
+        <v>44670</v>
+      </c>
+    </row>
+    <row r="24" s="3" customFormat="1" ht="53" spans="1:9">
+      <c r="A24" s="9">
+        <v>3.4</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" s="10">
         <v>2</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E24" s="10">
         <v>3</v>
       </c>
-      <c r="F23" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="G23" s="5"/>
-      <c r="H23" s="10">
-        <v>44669</v>
-      </c>
-      <c r="I23" s="10">
-        <v>44670</v>
-      </c>
-    </row>
-    <row r="24" ht="53" spans="1:9">
-      <c r="A24" s="7">
-        <v>3.3</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D24" s="5">
+      <c r="F24" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+    </row>
+    <row r="25" s="3" customFormat="1" ht="66" spans="1:9">
+      <c r="A25" s="9">
+        <v>3.5</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D25" s="10">
         <v>2</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E25" s="10">
         <v>3</v>
       </c>
-      <c r="F24" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-    </row>
-    <row r="25" ht="66" spans="1:9">
-      <c r="A25" s="7">
-        <v>3.4</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D25" s="5">
+      <c r="F25" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="G25"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+    </row>
+    <row r="26" s="2" customFormat="1" ht="66" spans="1:9">
+      <c r="A26" s="8">
+        <v>3.6</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D26" s="6">
         <v>2</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E26" s="6">
         <v>3</v>
       </c>
-      <c r="F25" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="G25"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-    </row>
-    <row r="26" ht="66" customHeight="1" spans="1:9">
-      <c r="A26" s="7">
-        <v>3.5</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D26" s="5">
+      <c r="F26" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+    </row>
+    <row r="27" s="3" customFormat="1" ht="66" customHeight="1" spans="1:9">
+      <c r="A27" s="9">
+        <v>3.7</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D27" s="10">
         <v>2</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E27" s="10">
         <v>3</v>
       </c>
-      <c r="F26" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="G26"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-    </row>
-    <row r="27" ht="66" spans="1:9">
-      <c r="A27" s="7">
-        <v>3.6</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D27" s="5">
-        <v>1</v>
-      </c>
-      <c r="E27" s="5">
+      <c r="F27" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="G27"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+    </row>
+    <row r="28" ht="66" spans="1:9">
+      <c r="A28" s="8">
+        <v>3.8</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D28" s="6">
         <v>3</v>
       </c>
-      <c r="F27" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="G27"/>
-      <c r="H27" s="10">
-        <v>44670</v>
-      </c>
-      <c r="I27" s="5"/>
-    </row>
-    <row r="28" ht="66" spans="1:9">
-      <c r="A28" s="7">
-        <v>3.7</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D28" s="5">
+      <c r="E28" s="6">
         <v>3</v>
       </c>
-      <c r="E28" s="5">
-        <v>3</v>
-      </c>
-      <c r="F28" s="13" t="s">
+      <c r="F28" s="16" t="s">
         <v>100</v>
       </c>
       <c r="G28"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="7"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
     </row>
   </sheetData>
-  <sortState ref="A2:I14">
+  <sortState ref="A2:I28">
     <sortCondition ref="D2"/>
   </sortState>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Docs/product backlog.xlsx
+++ b/Docs/product backlog.xlsx
@@ -381,7 +381,7 @@
 - Verify that when settings changes, preferences changes, too</t>
   </si>
   <si>
-    <t>Add custom theme color</t>
+    <t>Add custom theme colour</t>
   </si>
   <si>
     <t>As an airport staff
@@ -398,12 +398,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -426,19 +426,90 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -452,24 +523,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -482,24 +537,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -515,71 +569,11 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -596,13 +590,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -614,25 +704,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -644,31 +734,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -680,97 +758,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -802,24 +796,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -827,16 +803,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -858,11 +834,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -882,171 +865,181 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1060,12 +1053,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="47" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1082,9 +1069,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1437,8 +1421,8 @@
   <sheetPr/>
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="128" zoomScaleNormal="128" topLeftCell="C21" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" zoomScale="128" zoomScaleNormal="128" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -1448,7 +1432,7 @@
     <col min="3" max="3" width="36" style="2" customWidth="1"/>
     <col min="4" max="4" width="9" style="2"/>
     <col min="5" max="5" width="21.875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="37.625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="37.625" style="3" customWidth="1"/>
     <col min="7" max="7" width="6.125" style="2" customWidth="1"/>
     <col min="8" max="8" width="24.875" style="2" customWidth="1"/>
     <col min="9" max="9" width="26.375" style="2" customWidth="1"/>
@@ -1456,740 +1440,740 @@
   </cols>
   <sheetData>
     <row r="1" ht="27" spans="1:9">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" ht="66" spans="1:9">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <v>1</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <v>1</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="13">
+      <c r="G2" s="5"/>
+      <c r="H2" s="10">
         <v>44638</v>
       </c>
-      <c r="I2" s="13">
+      <c r="I2" s="10">
         <v>44644</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="66" spans="1:9">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="6">
         <v>1</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="6">
         <v>1</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="15">
+      <c r="G3" s="6"/>
+      <c r="H3" s="12">
         <v>44639</v>
       </c>
-      <c r="I3" s="15">
+      <c r="I3" s="12">
         <v>44641</v>
       </c>
     </row>
     <row r="4" ht="93" spans="1:9">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>1</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>1</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="13">
+      <c r="G4" s="5"/>
+      <c r="H4" s="10">
         <v>44639</v>
       </c>
-      <c r="I4" s="13">
+      <c r="I4" s="10">
         <v>44643</v>
       </c>
     </row>
     <row r="5" ht="53" spans="1:9">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>1</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>1</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="13">
+      <c r="G5" s="5"/>
+      <c r="H5" s="10">
         <v>44649</v>
       </c>
-      <c r="I5" s="13">
+      <c r="I5" s="10">
         <v>44649</v>
       </c>
     </row>
     <row r="6" ht="108.6" customHeight="1" spans="1:9">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>1</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>1</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="13">
+      <c r="G6" s="5"/>
+      <c r="H6" s="10">
         <v>44640</v>
       </c>
-      <c r="I6" s="13">
+      <c r="I6" s="10">
         <v>44640</v>
       </c>
     </row>
     <row r="7" ht="53" spans="1:9">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>2</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <v>1</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="13">
+      <c r="G7" s="5"/>
+      <c r="H7" s="10">
         <v>44643</v>
       </c>
-      <c r="I7" s="13">
+      <c r="I7" s="10">
         <v>44646</v>
       </c>
     </row>
     <row r="8" ht="93" spans="1:9">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>2</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <v>1</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="13">
+      <c r="G8" s="5"/>
+      <c r="H8" s="10">
         <v>44642</v>
       </c>
-      <c r="I8" s="13">
+      <c r="I8" s="10">
         <v>44644</v>
       </c>
     </row>
     <row r="9" ht="93" spans="1:9">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <v>2</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <v>1</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="13">
+      <c r="G9" s="5"/>
+      <c r="H9" s="10">
         <v>44642</v>
       </c>
-      <c r="I9" s="13">
+      <c r="I9" s="10">
         <v>44644</v>
       </c>
     </row>
     <row r="10" ht="66" spans="1:9">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>3</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <v>1</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="13">
+      <c r="G10" s="5"/>
+      <c r="H10" s="10">
         <v>44642</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I10" s="10">
         <v>44648</v>
       </c>
     </row>
     <row r="11" ht="80" spans="1:9">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <v>3</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="5">
         <v>1</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="13">
+      <c r="G11" s="5"/>
+      <c r="H11" s="10">
         <v>44639</v>
       </c>
-      <c r="I11" s="13">
+      <c r="I11" s="10">
         <v>44641</v>
       </c>
     </row>
     <row r="12" ht="80" spans="1:9">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="5">
         <v>3</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="5">
         <v>1</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="13">
+      <c r="G12" s="5"/>
+      <c r="H12" s="10">
         <v>44642</v>
       </c>
-      <c r="I12" s="13">
+      <c r="I12" s="10">
         <v>44643</v>
       </c>
     </row>
     <row r="13" ht="80" spans="1:9">
-      <c r="A13" s="8">
+      <c r="A13" s="7">
         <v>1.4</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="5">
         <v>3</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="5">
         <v>1</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="13">
+      <c r="G13" s="5"/>
+      <c r="H13" s="10">
         <v>44645</v>
       </c>
-      <c r="I13" s="13">
+      <c r="I13" s="10">
         <v>44647</v>
       </c>
     </row>
     <row r="14" ht="85.15" customHeight="1" spans="1:9">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="5">
         <v>4</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="5">
         <v>1</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="F14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="13">
+      <c r="G14" s="5"/>
+      <c r="H14" s="10">
         <v>44639</v>
       </c>
-      <c r="I14" s="13">
+      <c r="I14" s="10">
         <v>44643</v>
       </c>
     </row>
     <row r="15" ht="66" spans="1:9">
-      <c r="A15" s="8">
+      <c r="A15" s="7">
         <v>2.1</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="5">
         <v>2</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="5">
         <v>2</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="F15" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="13">
+      <c r="G15" s="5"/>
+      <c r="H15" s="10">
         <v>44659</v>
       </c>
-      <c r="I15" s="13">
+      <c r="I15" s="10">
         <v>44662</v>
       </c>
     </row>
     <row r="16" ht="66" spans="1:9">
-      <c r="A16" s="8">
+      <c r="A16" s="7">
         <v>2.2</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="5">
         <v>1</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="5">
         <v>2</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="F16" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="G16" s="6"/>
-      <c r="H16" s="13">
+      <c r="G16" s="5"/>
+      <c r="H16" s="10">
         <v>44662</v>
       </c>
-      <c r="I16" s="13">
+      <c r="I16" s="10">
         <v>44662</v>
       </c>
     </row>
     <row r="17" ht="66" spans="1:9">
-      <c r="A17" s="8">
+      <c r="A17" s="7">
         <v>2.3</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="5">
         <v>2</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="5">
         <v>2</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="F17" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="G17" s="6"/>
-      <c r="H17" s="13">
+      <c r="G17" s="5"/>
+      <c r="H17" s="10">
         <v>44661</v>
       </c>
-      <c r="I17" s="13">
+      <c r="I17" s="10">
         <v>44661</v>
       </c>
     </row>
     <row r="18" ht="53" spans="1:9">
-      <c r="A18" s="8">
+      <c r="A18" s="7">
         <v>2.4</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="5">
         <v>3</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="5">
         <v>2</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="F18" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="G18" s="6"/>
-      <c r="H18" s="13">
+      <c r="G18" s="5"/>
+      <c r="H18" s="10">
         <v>44662</v>
       </c>
-      <c r="I18" s="13">
+      <c r="I18" s="10">
         <v>44662</v>
       </c>
     </row>
     <row r="19" ht="66" spans="1:9">
-      <c r="A19" s="8">
+      <c r="A19" s="7">
         <v>2.5</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="5">
         <v>2</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="5">
         <v>2</v>
       </c>
-      <c r="F19" s="16" t="s">
+      <c r="F19" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="G19" s="6"/>
-      <c r="H19" s="13">
+      <c r="G19" s="5"/>
+      <c r="H19" s="10">
         <v>44662</v>
       </c>
-      <c r="I19" s="13">
+      <c r="I19" s="10">
         <v>44662</v>
       </c>
     </row>
     <row r="20" ht="66" spans="1:9">
-      <c r="A20" s="8">
+      <c r="A20" s="7">
         <v>2.6</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="5">
         <v>3</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="5">
         <v>2</v>
       </c>
-      <c r="F20" s="16" t="s">
+      <c r="F20" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="G20" s="6"/>
-      <c r="H20" s="13">
+      <c r="G20" s="5"/>
+      <c r="H20" s="10">
         <v>44662</v>
       </c>
-      <c r="I20" s="13">
+      <c r="I20" s="10">
         <v>44662</v>
       </c>
     </row>
     <row r="21" s="2" customFormat="1" ht="66" spans="1:9">
-      <c r="A21" s="8">
+      <c r="A21" s="7">
         <v>3.1</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="5">
         <v>1</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="5">
         <v>3</v>
       </c>
-      <c r="F21" s="16" t="s">
+      <c r="F21" s="13" t="s">
         <v>79</v>
       </c>
       <c r="G21"/>
-      <c r="H21" s="13">
+      <c r="H21" s="10">
         <v>44670</v>
       </c>
-      <c r="I21" s="6"/>
+      <c r="I21" s="5"/>
     </row>
     <row r="22" ht="66" spans="1:9">
-      <c r="A22" s="8">
+      <c r="A22" s="7">
         <v>3.2</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="5">
         <v>2</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="5">
         <v>3</v>
       </c>
-      <c r="F22" s="16" t="s">
+      <c r="F22" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="G22" s="6"/>
-      <c r="H22" s="13">
+      <c r="G22" s="5"/>
+      <c r="H22" s="10">
         <v>44666</v>
       </c>
-      <c r="I22" s="13">
+      <c r="I22" s="10">
         <v>44667</v>
       </c>
     </row>
     <row r="23" ht="66" spans="1:9">
-      <c r="A23" s="8">
+      <c r="A23" s="7">
         <v>3.3</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="5">
         <v>2</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="5">
         <v>3</v>
       </c>
-      <c r="F23" s="16" t="s">
+      <c r="F23" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="G23" s="6"/>
-      <c r="H23" s="13">
+      <c r="G23" s="5"/>
+      <c r="H23" s="10">
         <v>44669</v>
       </c>
-      <c r="I23" s="13">
+      <c r="I23" s="10">
         <v>44670</v>
       </c>
     </row>
-    <row r="24" s="3" customFormat="1" ht="53" spans="1:9">
-      <c r="A24" s="9">
+    <row r="24" s="2" customFormat="1" ht="53" spans="1:9">
+      <c r="A24" s="7">
         <v>3.4</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="5">
         <v>2</v>
       </c>
-      <c r="E24" s="10">
+      <c r="E24" s="5">
         <v>3</v>
       </c>
-      <c r="F24" s="17" t="s">
+      <c r="F24" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-    </row>
-    <row r="25" s="3" customFormat="1" ht="66" spans="1:9">
-      <c r="A25" s="9">
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+    </row>
+    <row r="25" s="2" customFormat="1" ht="66" spans="1:9">
+      <c r="A25" s="7">
         <v>3.5</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="5">
         <v>2</v>
       </c>
-      <c r="E25" s="10">
+      <c r="E25" s="5">
         <v>3</v>
       </c>
-      <c r="F25" s="17" t="s">
+      <c r="F25" s="13" t="s">
         <v>91</v>
       </c>
       <c r="G25"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
     </row>
     <row r="26" s="2" customFormat="1" ht="66" spans="1:9">
-      <c r="A26" s="8">
+      <c r="A26" s="7">
         <v>3.6</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="5">
         <v>2</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="5">
         <v>3</v>
       </c>
-      <c r="F26" s="16" t="s">
+      <c r="F26" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-    </row>
-    <row r="27" s="3" customFormat="1" ht="66" customHeight="1" spans="1:9">
-      <c r="A27" s="9">
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" s="2" customFormat="1" ht="66" customHeight="1" spans="1:9">
+      <c r="A27" s="7">
         <v>3.7</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="5">
         <v>2</v>
       </c>
-      <c r="E27" s="10">
+      <c r="E27" s="5">
         <v>3</v>
       </c>
-      <c r="F27" s="17" t="s">
+      <c r="F27" s="13" t="s">
         <v>97</v>
       </c>
       <c r="G27"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
     </row>
     <row r="28" ht="66" spans="1:9">
-      <c r="A28" s="8">
+      <c r="A28" s="7">
         <v>3.8</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="5">
         <v>3</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="5">
         <v>3</v>
       </c>
-      <c r="F28" s="16" t="s">
+      <c r="F28" s="13" t="s">
         <v>100</v>
       </c>
       <c r="G28"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
     </row>
   </sheetData>
   <sortState ref="A2:I28">

--- a/Docs/product backlog.xlsx
+++ b/Docs/product backlog.xlsx
@@ -381,7 +381,7 @@
 - Verify that when settings changes, preferences changes, too</t>
   </si>
   <si>
-    <t>Add custom theme colour</t>
+    <t>Add custom theme color</t>
   </si>
   <si>
     <t>As an airport staff
@@ -1422,7 +1422,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="128" zoomScaleNormal="128" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>

--- a/Docs/product backlog.xlsx
+++ b/Docs/product backlog.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104">
   <si>
     <t>Story ID</t>
   </si>
@@ -379,6 +379,20 @@
   <si>
     <t>- Verify that an interface is provided to load different preference settings
 - Verify that when settings changes, preferences changes, too</t>
+  </si>
+  <si>
+    <t>Add animation speed shell to config</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  As an airline manager        
+  I want pre-store multiple mode of animation speed in the configuration
+  So that passengers can satisfy the animation in the system 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+-Verify that config includes different speeds of animation
+</t>
   </si>
   <si>
     <t>Add custom theme color</t>
@@ -398,10 +412,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -425,91 +439,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -524,28 +461,60 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -561,6 +530,44 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -568,6 +575,13 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -590,181 +604,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -797,7 +811,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -813,6 +842,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -836,42 +876,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -890,153 +895,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1053,6 +1067,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="47" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1070,6 +1093,9 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1419,10 +1445,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="128" zoomScaleNormal="128" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" zoomScale="128" zoomScaleNormal="128" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -1455,7 +1481,7 @@
       <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="4" t="s">
@@ -1484,14 +1510,14 @@
       <c r="E2" s="5">
         <v>1</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="12" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="5"/>
-      <c r="H2" s="10">
+      <c r="H2" s="13">
         <v>44638</v>
       </c>
-      <c r="I2" s="10">
+      <c r="I2" s="13">
         <v>44644</v>
       </c>
     </row>
@@ -1511,14 +1537,14 @@
       <c r="E3" s="6">
         <v>1</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="14" t="s">
         <v>16</v>
       </c>
       <c r="G3" s="6"/>
-      <c r="H3" s="12">
+      <c r="H3" s="15">
         <v>44639</v>
       </c>
-      <c r="I3" s="12">
+      <c r="I3" s="15">
         <v>44641</v>
       </c>
     </row>
@@ -1538,14 +1564,14 @@
       <c r="E4" s="5">
         <v>1</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="16" t="s">
         <v>20</v>
       </c>
       <c r="G4" s="5"/>
-      <c r="H4" s="10">
+      <c r="H4" s="13">
         <v>44639</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="13">
         <v>44643</v>
       </c>
     </row>
@@ -1565,14 +1591,14 @@
       <c r="E5" s="5">
         <v>1</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="16" t="s">
         <v>24</v>
       </c>
       <c r="G5" s="5"/>
-      <c r="H5" s="10">
+      <c r="H5" s="13">
         <v>44649</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="13">
         <v>44649</v>
       </c>
     </row>
@@ -1592,14 +1618,14 @@
       <c r="E6" s="5">
         <v>1</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="16" t="s">
         <v>28</v>
       </c>
       <c r="G6" s="5"/>
-      <c r="H6" s="10">
+      <c r="H6" s="13">
         <v>44640</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="13">
         <v>44640</v>
       </c>
     </row>
@@ -1619,14 +1645,14 @@
       <c r="E7" s="5">
         <v>1</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="16" t="s">
         <v>32</v>
       </c>
       <c r="G7" s="5"/>
-      <c r="H7" s="10">
+      <c r="H7" s="13">
         <v>44643</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="13">
         <v>44646</v>
       </c>
     </row>
@@ -1646,14 +1672,14 @@
       <c r="E8" s="5">
         <v>1</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="16" t="s">
         <v>36</v>
       </c>
       <c r="G8" s="5"/>
-      <c r="H8" s="10">
+      <c r="H8" s="13">
         <v>44642</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8" s="13">
         <v>44644</v>
       </c>
     </row>
@@ -1673,14 +1699,14 @@
       <c r="E9" s="5">
         <v>1</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="16" t="s">
         <v>39</v>
       </c>
       <c r="G9" s="5"/>
-      <c r="H9" s="10">
+      <c r="H9" s="13">
         <v>44642</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="13">
         <v>44644</v>
       </c>
     </row>
@@ -1700,14 +1726,14 @@
       <c r="E10" s="5">
         <v>1</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="16" t="s">
         <v>43</v>
       </c>
       <c r="G10" s="5"/>
-      <c r="H10" s="10">
+      <c r="H10" s="13">
         <v>44642</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="13">
         <v>44648</v>
       </c>
     </row>
@@ -1727,14 +1753,14 @@
       <c r="E11" s="5">
         <v>1</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="16" t="s">
         <v>47</v>
       </c>
       <c r="G11" s="5"/>
-      <c r="H11" s="10">
+      <c r="H11" s="13">
         <v>44639</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I11" s="13">
         <v>44641</v>
       </c>
     </row>
@@ -1754,14 +1780,14 @@
       <c r="E12" s="5">
         <v>1</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="16" t="s">
         <v>51</v>
       </c>
       <c r="G12" s="5"/>
-      <c r="H12" s="10">
+      <c r="H12" s="13">
         <v>44642</v>
       </c>
-      <c r="I12" s="10">
+      <c r="I12" s="13">
         <v>44643</v>
       </c>
     </row>
@@ -1781,14 +1807,14 @@
       <c r="E13" s="5">
         <v>1</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="16" t="s">
         <v>54</v>
       </c>
       <c r="G13" s="5"/>
-      <c r="H13" s="10">
+      <c r="H13" s="13">
         <v>44645</v>
       </c>
-      <c r="I13" s="10">
+      <c r="I13" s="13">
         <v>44647</v>
       </c>
     </row>
@@ -1808,14 +1834,14 @@
       <c r="E14" s="5">
         <v>1</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="16" t="s">
         <v>58</v>
       </c>
       <c r="G14" s="5"/>
-      <c r="H14" s="10">
+      <c r="H14" s="13">
         <v>44639</v>
       </c>
-      <c r="I14" s="10">
+      <c r="I14" s="13">
         <v>44643</v>
       </c>
     </row>
@@ -1835,14 +1861,14 @@
       <c r="E15" s="5">
         <v>2</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="16" t="s">
         <v>61</v>
       </c>
       <c r="G15" s="5"/>
-      <c r="H15" s="10">
+      <c r="H15" s="13">
         <v>44659</v>
       </c>
-      <c r="I15" s="10">
+      <c r="I15" s="13">
         <v>44662</v>
       </c>
     </row>
@@ -1862,14 +1888,14 @@
       <c r="E16" s="5">
         <v>2</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="16" t="s">
         <v>64</v>
       </c>
       <c r="G16" s="5"/>
-      <c r="H16" s="10">
+      <c r="H16" s="13">
         <v>44662</v>
       </c>
-      <c r="I16" s="10">
+      <c r="I16" s="13">
         <v>44662</v>
       </c>
     </row>
@@ -1889,14 +1915,14 @@
       <c r="E17" s="5">
         <v>2</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="16" t="s">
         <v>67</v>
       </c>
       <c r="G17" s="5"/>
-      <c r="H17" s="10">
+      <c r="H17" s="13">
         <v>44661</v>
       </c>
-      <c r="I17" s="10">
+      <c r="I17" s="13">
         <v>44661</v>
       </c>
     </row>
@@ -1916,14 +1942,14 @@
       <c r="E18" s="5">
         <v>2</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="16" t="s">
         <v>70</v>
       </c>
       <c r="G18" s="5"/>
-      <c r="H18" s="10">
+      <c r="H18" s="13">
         <v>44662</v>
       </c>
-      <c r="I18" s="10">
+      <c r="I18" s="13">
         <v>44662</v>
       </c>
     </row>
@@ -1943,14 +1969,14 @@
       <c r="E19" s="5">
         <v>2</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="F19" s="16" t="s">
         <v>73</v>
       </c>
       <c r="G19" s="5"/>
-      <c r="H19" s="10">
+      <c r="H19" s="13">
         <v>44662</v>
       </c>
-      <c r="I19" s="10">
+      <c r="I19" s="13">
         <v>44662</v>
       </c>
     </row>
@@ -1970,14 +1996,14 @@
       <c r="E20" s="5">
         <v>2</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="F20" s="16" t="s">
         <v>76</v>
       </c>
       <c r="G20" s="5"/>
-      <c r="H20" s="10">
+      <c r="H20" s="13">
         <v>44662</v>
       </c>
-      <c r="I20" s="10">
+      <c r="I20" s="13">
         <v>44662</v>
       </c>
     </row>
@@ -1997,11 +2023,11 @@
       <c r="E21" s="5">
         <v>3</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="F21" s="16" t="s">
         <v>79</v>
       </c>
       <c r="G21"/>
-      <c r="H21" s="10">
+      <c r="H21" s="13">
         <v>44670</v>
       </c>
       <c r="I21" s="5"/>
@@ -2022,14 +2048,14 @@
       <c r="E22" s="5">
         <v>3</v>
       </c>
-      <c r="F22" s="13" t="s">
+      <c r="F22" s="16" t="s">
         <v>82</v>
       </c>
       <c r="G22" s="5"/>
-      <c r="H22" s="10">
+      <c r="H22" s="13">
         <v>44666</v>
       </c>
-      <c r="I22" s="10">
+      <c r="I22" s="13">
         <v>44667</v>
       </c>
     </row>
@@ -2049,14 +2075,14 @@
       <c r="E23" s="5">
         <v>3</v>
       </c>
-      <c r="F23" s="13" t="s">
+      <c r="F23" s="16" t="s">
         <v>85</v>
       </c>
       <c r="G23" s="5"/>
-      <c r="H23" s="10">
+      <c r="H23" s="13">
         <v>44669</v>
       </c>
-      <c r="I23" s="10">
+      <c r="I23" s="13">
         <v>44670</v>
       </c>
     </row>
@@ -2076,7 +2102,7 @@
       <c r="E24" s="5">
         <v>3</v>
       </c>
-      <c r="F24" s="13" t="s">
+      <c r="F24" s="16" t="s">
         <v>88</v>
       </c>
       <c r="G24" s="5"/>
@@ -2099,7 +2125,7 @@
       <c r="E25" s="5">
         <v>3</v>
       </c>
-      <c r="F25" s="13" t="s">
+      <c r="F25" s="16" t="s">
         <v>91</v>
       </c>
       <c r="G25"/>
@@ -2122,7 +2148,7 @@
       <c r="E26" s="5">
         <v>3</v>
       </c>
-      <c r="F26" s="13" t="s">
+      <c r="F26" s="16" t="s">
         <v>94</v>
       </c>
       <c r="G26" s="5"/>
@@ -2145,35 +2171,55 @@
       <c r="E27" s="5">
         <v>3</v>
       </c>
-      <c r="F27" s="13" t="s">
+      <c r="F27" s="16" t="s">
         <v>97</v>
       </c>
       <c r="G27"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
     </row>
-    <row r="28" ht="66" spans="1:9">
-      <c r="A28" s="7">
+    <row r="28" s="2" customFormat="1" ht="80" spans="1:6">
+      <c r="A28" s="8">
         <v>3.8</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="2">
+        <v>2</v>
+      </c>
+      <c r="E28" s="2">
         <v>3</v>
       </c>
-      <c r="E28" s="5">
+      <c r="F28" s="17" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" ht="66" spans="1:9">
+      <c r="A29" s="7">
+        <v>3.9</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D29" s="5">
         <v>3</v>
       </c>
-      <c r="F28" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="G28"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
+      <c r="E29" s="5">
+        <v>3</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="G29"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
     </row>
   </sheetData>
   <sortState ref="A2:I28">

--- a/Docs/product backlog.xlsx
+++ b/Docs/product backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="17020"/>
+    <workbookView windowHeight="17520"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107">
   <si>
     <t>Story ID</t>
   </si>
@@ -393,6 +393,17 @@
     <t xml:space="preserve">
 -Verify that config includes different speeds of animation
 </t>
+  </si>
+  <si>
+    <t>Add meal preference</t>
+  </si>
+  <si>
+    <t>As an airport staff
+I want to be able to choose more meal in better looking pages
+So that passengers can save time</t>
+  </si>
+  <si>
+    <t>-Verify that meal preference changes according to config settings</t>
   </si>
   <si>
     <t>Add custom theme color</t>
@@ -411,11 +422,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -439,7 +451,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -447,29 +474,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -483,9 +487,40 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -497,32 +532,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -543,14 +555,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -558,36 +562,44 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -604,19 +616,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -628,55 +736,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -688,97 +778,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -811,22 +823,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -848,11 +854,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -872,181 +891,174 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1071,10 +1083,10 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="47" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1094,8 +1106,8 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1445,10 +1457,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="128" zoomScaleNormal="128" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -2030,7 +2042,9 @@
       <c r="H21" s="13">
         <v>44670</v>
       </c>
-      <c r="I21" s="5"/>
+      <c r="I21" s="13">
+        <v>44672</v>
+      </c>
     </row>
     <row r="22" ht="66" spans="1:9">
       <c r="A22" s="7">
@@ -2106,8 +2120,12 @@
         <v>88</v>
       </c>
       <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
+      <c r="H24" s="13">
+        <v>44669</v>
+      </c>
+      <c r="I24" s="13">
+        <v>44677</v>
+      </c>
     </row>
     <row r="25" s="2" customFormat="1" ht="66" spans="1:9">
       <c r="A25" s="7">
@@ -2129,8 +2147,12 @@
         <v>91</v>
       </c>
       <c r="G25"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
+      <c r="H25" s="13">
+        <v>44670</v>
+      </c>
+      <c r="I25" s="13">
+        <v>44670</v>
+      </c>
     </row>
     <row r="26" s="2" customFormat="1" ht="66" spans="1:9">
       <c r="A26" s="7">
@@ -2152,8 +2174,12 @@
         <v>94</v>
       </c>
       <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
+      <c r="H26" s="13">
+        <v>44671</v>
+      </c>
+      <c r="I26" s="13">
+        <v>44671</v>
+      </c>
     </row>
     <row r="27" s="2" customFormat="1" ht="66" customHeight="1" spans="1:9">
       <c r="A27" s="7">
@@ -2175,30 +2201,41 @@
         <v>97</v>
       </c>
       <c r="G27"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-    </row>
-    <row r="28" s="2" customFormat="1" ht="80" spans="1:6">
+      <c r="H27" s="13">
+        <v>44674</v>
+      </c>
+      <c r="I27" s="13">
+        <v>44674</v>
+      </c>
+    </row>
+    <row r="28" s="2" customFormat="1" ht="80" spans="1:9">
       <c r="A28" s="8">
         <v>3.8</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="9">
         <v>2</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="9">
         <v>3</v>
       </c>
-      <c r="F28" s="17" t="s">
+      <c r="F28" s="16" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="29" ht="66" spans="1:9">
+      <c r="G28" s="9"/>
+      <c r="H28" s="17">
+        <v>44675</v>
+      </c>
+      <c r="I28" s="17">
+        <v>44675</v>
+      </c>
+    </row>
+    <row r="29" ht="53" spans="1:9">
       <c r="A29" s="7">
         <v>3.9</v>
       </c>
@@ -2209,7 +2246,7 @@
         <v>102</v>
       </c>
       <c r="D29" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E29" s="5">
         <v>3</v>
@@ -2218,8 +2255,39 @@
         <v>103</v>
       </c>
       <c r="G29"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
+      <c r="H29" s="13">
+        <v>44676</v>
+      </c>
+      <c r="I29" s="13">
+        <v>44677</v>
+      </c>
+    </row>
+    <row r="30" s="2" customFormat="1" ht="66" spans="1:9">
+      <c r="A30" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D30" s="5">
+        <v>3</v>
+      </c>
+      <c r="E30" s="5">
+        <v>3</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="G30"/>
+      <c r="H30" s="13">
+        <v>44672</v>
+      </c>
+      <c r="I30" s="13">
+        <v>44673</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A2:I28">

--- a/Docs/product backlog.xlsx
+++ b/Docs/product backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17520"/>
+    <workbookView windowWidth="28800" windowHeight="13920"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -425,9 +425,9 @@
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -451,7 +451,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -465,34 +510,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -501,16 +518,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -524,9 +534,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -556,50 +595,11 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -616,43 +616,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -664,7 +730,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -676,19 +742,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -706,7 +760,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -718,37 +772,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -760,31 +784,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -823,6 +823,15 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -830,9 +839,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -852,11 +863,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -891,174 +908,157 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1459,8 +1459,8 @@
   <sheetPr/>
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>

--- a/Docs/product backlog.xlsx
+++ b/Docs/product backlog.xlsx
@@ -1460,7 +1460,7 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>

--- a/Docs/product backlog.xlsx
+++ b/Docs/product backlog.xlsx
@@ -2215,7 +2215,7 @@
       <c r="B28" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="7" t="s">
         <v>99</v>
       </c>
       <c r="D28" s="9">

--- a/Docs/product backlog.xlsx
+++ b/Docs/product backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13920"/>
+    <workbookView windowHeight="17520"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132">
   <si>
     <t>Story ID</t>
   </si>
@@ -416,20 +416,143 @@
   <si>
     <t>- Verify that config includes theme color entry
 - Verify that theme color changes according to config settings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Should not run if failed to load config
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  As a         airport manager
+  I want      the software not to run if it fails to load any configuration items
+  So that    service with defect will not be provided to users</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-Verify that if any configuration entry is missing or invalid, the programme does not launch
+-Verify that when launch is aborted, admin is informed of problematic entries
+</t>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">heck </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>card numbers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">  As an airline stuff        
+  I want to ensure that the text field can only be accepted 8 digits card number
+  So that card number can be unified</t>
+  </si>
+  <si>
+    <t>-Verify that there will be a warning if the card number is not 8 digits.</t>
+  </si>
+  <si>
+    <t>Configurable auto dark theme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  As an airport staff,
+  I want to decide if the software should change to dark theme when the night falls,
+  So that passengers can have a better check-in experience.</t>
+  </si>
+  <si>
+    <t>- Verify that instance variables change only at the end of a check-in process.
+- Verify that the theme will reset to the previous light theme the next morning.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Display aircraft information  </t>
+  </si>
+  <si>
+    <t>As a passenger
+I want to be able to know the aircraft information
+So that I can make sure I'm checking in the right flight</t>
+  </si>
+  <si>
+    <t>- Verify that aircraft information includes plane model, capacity and airline.
+- Verify that the aircraft information window is foldable.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multi-platform DB operator   </t>
+  </si>
+  <si>
+    <t>As an airport manager,
+I want to check the correctness of the whole program by using tests,
+and tests should have abilities to run on different OSs.</t>
+  </si>
+  <si>
+    <t>- Verify that tests can run on different OSs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No-operation detection </t>
+  </si>
+  <si>
+    <t>As an airport manager,
+I want the program back to the welcome page if no operation at the login page in a fixed time.</t>
+  </si>
+  <si>
+    <t>- Verify that detection is accurate.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configuration should use less I/O </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  As a         airport manager
+  I want      the software only use I/O once when launching the software
+  So that    performance is optimized</t>
+  </si>
+  <si>
+    <t>-  Verify that I/O operation only happen once when launching software</t>
+  </si>
+  <si>
+    <t>Animations after pressing "Pay"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  As a        passenger
+  I want      there's an animation in the payment screen 
+  So that    make sure I finish paying</t>
+  </si>
+  <si>
+    <t>-  Verify that animation only appears when done</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -450,8 +573,28 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -465,43 +608,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -510,9 +616,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -535,16 +640,47 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -563,17 +699,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -588,17 +724,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -616,43 +751,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -664,133 +871,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -822,6 +957,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -833,17 +977,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -864,6 +997,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -878,17 +1026,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -907,162 +1051,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1085,8 +1220,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="47" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1109,6 +1244,7 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1457,10 +1593,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" zoomScale="119" zoomScaleNormal="119" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -2263,7 +2399,7 @@
       </c>
     </row>
     <row r="30" s="2" customFormat="1" ht="66" spans="1:9">
-      <c r="A30" s="10">
+      <c r="A30" s="7">
         <v>3.1</v>
       </c>
       <c r="B30" s="7" t="s">
@@ -2288,6 +2424,246 @@
       <c r="I30" s="13">
         <v>44673</v>
       </c>
+    </row>
+    <row r="31" ht="80" spans="1:8">
+      <c r="A31" s="7">
+        <v>4.1</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D31" s="5">
+        <v>2</v>
+      </c>
+      <c r="E31" s="5">
+        <v>4</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="G31"/>
+      <c r="H31" s="13"/>
+    </row>
+    <row r="32" ht="53" spans="1:9">
+      <c r="A32" s="7">
+        <v>4.2</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D32" s="5">
+        <v>2</v>
+      </c>
+      <c r="E32" s="5">
+        <v>4</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="G32"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+    </row>
+    <row r="33" ht="80" spans="1:9">
+      <c r="A33" s="7">
+        <v>4.3</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D33" s="5">
+        <v>4</v>
+      </c>
+      <c r="E33" s="5">
+        <v>4</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="G33"/>
+      <c r="H33" s="13">
+        <v>44687</v>
+      </c>
+      <c r="I33" s="13">
+        <v>44688</v>
+      </c>
+    </row>
+    <row r="34" ht="66" spans="1:9">
+      <c r="A34" s="7">
+        <v>4.4</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D34" s="5">
+        <v>3</v>
+      </c>
+      <c r="E34" s="5">
+        <v>4</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="G34"/>
+      <c r="H34" s="13">
+        <v>44687</v>
+      </c>
+      <c r="I34" s="13">
+        <v>44687</v>
+      </c>
+    </row>
+    <row r="35" ht="66" spans="1:9">
+      <c r="A35" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D35" s="5">
+        <v>4</v>
+      </c>
+      <c r="E35" s="5">
+        <v>4</v>
+      </c>
+      <c r="F35" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="G35"/>
+      <c r="H35" s="13">
+        <v>44688</v>
+      </c>
+      <c r="I35" s="13">
+        <v>44689</v>
+      </c>
+    </row>
+    <row r="36" ht="53" spans="1:9">
+      <c r="A36" s="7">
+        <v>4.6</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D36" s="5">
+        <v>4</v>
+      </c>
+      <c r="E36" s="5">
+        <v>4</v>
+      </c>
+      <c r="F36" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="G36"/>
+      <c r="H36" s="13">
+        <v>44688</v>
+      </c>
+      <c r="I36" s="13">
+        <v>44689</v>
+      </c>
+    </row>
+    <row r="37" ht="53" spans="1:9">
+      <c r="A37" s="7">
+        <v>4.7</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D37" s="5">
+        <v>4</v>
+      </c>
+      <c r="E37" s="5">
+        <v>4</v>
+      </c>
+      <c r="F37" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="G37"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+    </row>
+    <row r="38" ht="53" spans="1:9">
+      <c r="A38" s="7">
+        <v>4.8</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D38" s="5">
+        <v>4</v>
+      </c>
+      <c r="E38" s="5">
+        <v>4</v>
+      </c>
+      <c r="F38" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="G38"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+    </row>
+    <row r="39" ht="14.8" spans="1:9">
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="I39" s="13"/>
+    </row>
+    <row r="40" spans="9:9">
+      <c r="I40" s="13"/>
+    </row>
+    <row r="41" spans="9:9">
+      <c r="I41" s="13"/>
+    </row>
+    <row r="42" spans="9:9">
+      <c r="I42" s="13"/>
+    </row>
+    <row r="43" spans="9:9">
+      <c r="I43" s="13"/>
+    </row>
+    <row r="44" spans="9:9">
+      <c r="I44" s="13"/>
+    </row>
+    <row r="45" spans="9:9">
+      <c r="I45" s="13"/>
+    </row>
+    <row r="46" spans="9:9">
+      <c r="I46" s="13"/>
+    </row>
+    <row r="47" spans="9:9">
+      <c r="I47" s="13"/>
+    </row>
+    <row r="48" spans="9:9">
+      <c r="I48" s="13"/>
+    </row>
+    <row r="49" spans="9:9">
+      <c r="I49" s="13"/>
     </row>
   </sheetData>
   <sortState ref="A2:I28">

--- a/Docs/product backlog.xlsx
+++ b/Docs/product backlog.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\shit\EBU6304-2021-Software-Engineering-Group-111\Docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowHeight="17520"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="17520"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="132">
   <si>
     <t>Story ID</t>
   </si>
@@ -440,7 +445,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">heck </t>
     </r>
@@ -458,7 +463,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -545,14 +550,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -564,53 +563,23 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -620,123 +589,15 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -745,192 +606,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -953,256 +634,17 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1223,7 +665,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="47" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1246,61 +688,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
+    <cellStyle name="40% - 着色 1" xfId="1" builtinId="31"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1587,33 +986,33 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="119" zoomScaleNormal="119" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="119" zoomScaleNormal="119" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="26.375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="36" style="2" customWidth="1"/>
     <col min="4" max="4" width="9" style="2"/>
-    <col min="5" max="5" width="21.875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="37.625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="6.125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="24.875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="26.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="21.88671875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="37.6640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="6.109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="24.88671875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="26.33203125" style="2" customWidth="1"/>
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1642,7 +1041,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="66" spans="1:9">
+    <row r="2" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
@@ -1669,7 +1068,7 @@
         <v>44644</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="66" spans="1:9">
+    <row r="3" spans="1:9" s="1" customFormat="1" ht="69" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>13</v>
       </c>
@@ -1696,7 +1095,7 @@
         <v>44641</v>
       </c>
     </row>
-    <row r="4" ht="93" spans="1:9">
+    <row r="4" spans="1:9" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>17</v>
       </c>
@@ -1723,7 +1122,7 @@
         <v>44643</v>
       </c>
     </row>
-    <row r="5" ht="53" spans="1:9">
+    <row r="5" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>21</v>
       </c>
@@ -1750,7 +1149,7 @@
         <v>44649</v>
       </c>
     </row>
-    <row r="6" ht="108.6" customHeight="1" spans="1:9">
+    <row r="6" spans="1:9" ht="108.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>25</v>
       </c>
@@ -1777,7 +1176,7 @@
         <v>44640</v>
       </c>
     </row>
-    <row r="7" ht="53" spans="1:9">
+    <row r="7" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>29</v>
       </c>
@@ -1804,7 +1203,7 @@
         <v>44646</v>
       </c>
     </row>
-    <row r="8" ht="93" spans="1:9">
+    <row r="8" spans="1:9" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>33</v>
       </c>
@@ -1831,7 +1230,7 @@
         <v>44644</v>
       </c>
     </row>
-    <row r="9" ht="93" spans="1:9">
+    <row r="9" spans="1:9" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>37</v>
       </c>
@@ -1858,7 +1257,7 @@
         <v>44644</v>
       </c>
     </row>
-    <row r="10" ht="66" spans="1:9">
+    <row r="10" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>40</v>
       </c>
@@ -1885,7 +1284,7 @@
         <v>44648</v>
       </c>
     </row>
-    <row r="11" ht="80" spans="1:9">
+    <row r="11" spans="1:9" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>44</v>
       </c>
@@ -1912,7 +1311,7 @@
         <v>44641</v>
       </c>
     </row>
-    <row r="12" ht="80" spans="1:9">
+    <row r="12" spans="1:9" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>48</v>
       </c>
@@ -1939,7 +1338,7 @@
         <v>44643</v>
       </c>
     </row>
-    <row r="13" ht="80" spans="1:9">
+    <row r="13" spans="1:9" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>1.4</v>
       </c>
@@ -1966,7 +1365,7 @@
         <v>44647</v>
       </c>
     </row>
-    <row r="14" ht="85.15" customHeight="1" spans="1:9">
+    <row r="14" spans="1:9" ht="85.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>55</v>
       </c>
@@ -1993,7 +1392,7 @@
         <v>44643</v>
       </c>
     </row>
-    <row r="15" ht="66" spans="1:9">
+    <row r="15" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>2.1</v>
       </c>
@@ -2020,9 +1419,9 @@
         <v>44662</v>
       </c>
     </row>
-    <row r="16" ht="66" spans="1:9">
+    <row r="16" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>62</v>
@@ -2047,9 +1446,9 @@
         <v>44662</v>
       </c>
     </row>
-    <row r="17" ht="66" spans="1:9">
+    <row r="17" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>65</v>
@@ -2074,7 +1473,7 @@
         <v>44661</v>
       </c>
     </row>
-    <row r="18" ht="53" spans="1:9">
+    <row r="18" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>2.4</v>
       </c>
@@ -2101,7 +1500,7 @@
         <v>44662</v>
       </c>
     </row>
-    <row r="19" ht="66" spans="1:9">
+    <row r="19" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>2.5</v>
       </c>
@@ -2128,7 +1527,7 @@
         <v>44662</v>
       </c>
     </row>
-    <row r="20" ht="66" spans="1:9">
+    <row r="20" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>2.6</v>
       </c>
@@ -2155,7 +1554,7 @@
         <v>44662</v>
       </c>
     </row>
-    <row r="21" s="2" customFormat="1" ht="66" spans="1:9">
+    <row r="21" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>3.1</v>
       </c>
@@ -2182,7 +1581,7 @@
         <v>44672</v>
       </c>
     </row>
-    <row r="22" ht="66" spans="1:9">
+    <row r="22" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>3.2</v>
       </c>
@@ -2209,7 +1608,7 @@
         <v>44667</v>
       </c>
     </row>
-    <row r="23" ht="66" spans="1:9">
+    <row r="23" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>3.3</v>
       </c>
@@ -2236,7 +1635,7 @@
         <v>44670</v>
       </c>
     </row>
-    <row r="24" s="2" customFormat="1" ht="53" spans="1:9">
+    <row r="24" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>3.4</v>
       </c>
@@ -2263,7 +1662,7 @@
         <v>44677</v>
       </c>
     </row>
-    <row r="25" s="2" customFormat="1" ht="66" spans="1:9">
+    <row r="25" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>3.5</v>
       </c>
@@ -2290,7 +1689,7 @@
         <v>44670</v>
       </c>
     </row>
-    <row r="26" s="2" customFormat="1" ht="66" spans="1:9">
+    <row r="26" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>3.6</v>
       </c>
@@ -2317,7 +1716,7 @@
         <v>44671</v>
       </c>
     </row>
-    <row r="27" s="2" customFormat="1" ht="66" customHeight="1" spans="1:9">
+    <row r="27" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>3.7</v>
       </c>
@@ -2344,7 +1743,7 @@
         <v>44674</v>
       </c>
     </row>
-    <row r="28" s="2" customFormat="1" ht="80" spans="1:9">
+    <row r="28" spans="1:9" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>3.8</v>
       </c>
@@ -2371,7 +1770,7 @@
         <v>44675</v>
       </c>
     </row>
-    <row r="29" ht="53" spans="1:9">
+    <row r="29" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>3.9</v>
       </c>
@@ -2398,7 +1797,7 @@
         <v>44677</v>
       </c>
     </row>
-    <row r="30" s="2" customFormat="1" ht="66" spans="1:9">
+    <row r="30" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>3.1</v>
       </c>
@@ -2425,9 +1824,9 @@
         <v>44673</v>
       </c>
     </row>
-    <row r="31" ht="80" spans="1:8">
+    <row r="31" spans="1:9" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>107</v>
@@ -2447,7 +1846,7 @@
       <c r="G31"/>
       <c r="H31" s="13"/>
     </row>
-    <row r="32" ht="53" spans="1:9">
+    <row r="32" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>4.2</v>
       </c>
@@ -2470,7 +1869,7 @@
       <c r="H32" s="13"/>
       <c r="I32" s="13"/>
     </row>
-    <row r="33" ht="80" spans="1:9">
+    <row r="33" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>4.3</v>
       </c>
@@ -2497,9 +1896,9 @@
         <v>44688</v>
       </c>
     </row>
-    <row r="34" ht="66" spans="1:9">
+    <row r="34" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>116</v>
@@ -2521,10 +1920,10 @@
         <v>44687</v>
       </c>
       <c r="I34" s="13">
-        <v>44687</v>
-      </c>
-    </row>
-    <row r="35" ht="66" spans="1:9">
+        <v>44692</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>4.5</v>
       </c>
@@ -2551,9 +1950,9 @@
         <v>44689</v>
       </c>
     </row>
-    <row r="36" ht="53" spans="1:9">
+    <row r="36" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>122</v>
@@ -2578,7 +1977,7 @@
         <v>44689</v>
       </c>
     </row>
-    <row r="37" ht="53" spans="1:9">
+    <row r="37" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>4.7</v>
       </c>
@@ -2601,7 +2000,7 @@
       <c r="H37" s="13"/>
       <c r="I37" s="13"/>
     </row>
-    <row r="38" ht="53" spans="1:9">
+    <row r="38" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>4.8</v>
       </c>
@@ -2624,7 +2023,7 @@
       <c r="H38" s="13"/>
       <c r="I38" s="13"/>
     </row>
-    <row r="39" ht="14.8" spans="1:9">
+    <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
@@ -2635,42 +2034,42 @@
       </c>
       <c r="I39" s="13"/>
     </row>
-    <row r="40" spans="9:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I40" s="13"/>
     </row>
-    <row r="41" spans="9:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I41" s="13"/>
     </row>
-    <row r="42" spans="9:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I42" s="13"/>
     </row>
-    <row r="43" spans="9:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I43" s="13"/>
     </row>
-    <row r="44" spans="9:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I44" s="13"/>
     </row>
-    <row r="45" spans="9:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I45" s="13"/>
     </row>
-    <row r="46" spans="9:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I46" s="13"/>
     </row>
-    <row r="47" spans="9:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I47" s="13"/>
     </row>
-    <row r="48" spans="9:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I48" s="13"/>
     </row>
-    <row r="49" spans="9:9">
+    <row r="49" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I49" s="13"/>
     </row>
   </sheetData>
   <sortState ref="A2:I28">
     <sortCondition ref="D2"/>
   </sortState>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Docs/product backlog.xlsx
+++ b/Docs/product backlog.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\shit\EBU6304-2021-Software-Engineering-Group-111\Docs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="17520"/>
+    <workbookView windowHeight="17520"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132">
   <si>
     <t>Story ID</t>
   </si>
@@ -445,7 +440,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">heck </t>
     </r>
@@ -463,7 +458,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -477,6 +472,18 @@
     <t>-Verify that there will be a warning if the card number is not 8 digits.</t>
   </si>
   <si>
+    <t xml:space="preserve">Display aircraft information  </t>
+  </si>
+  <si>
+    <t>As a passenger
+I want to be able to know the aircraft information
+So that I can make sure I'm checking in the right flight</t>
+  </si>
+  <si>
+    <t>- Verify that aircraft information includes plane model, capacity and airline.
+- Verify that the aircraft information window is foldable.</t>
+  </si>
+  <si>
     <t>Configurable auto dark theme</t>
   </si>
   <si>
@@ -487,18 +494,6 @@
   <si>
     <t>- Verify that instance variables change only at the end of a check-in process.
 - Verify that the theme will reset to the previous light theme the next morning.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Display aircraft information  </t>
-  </si>
-  <si>
-    <t>As a passenger
-I want to be able to know the aircraft information
-So that I can make sure I'm checking in the right flight</t>
-  </si>
-  <si>
-    <t>- Verify that aircraft information includes plane model, capacity and airline.
-- Verify that the aircraft information window is foldable.</t>
   </si>
   <si>
     <t xml:space="preserve">Multi-platform DB operator   </t>
@@ -550,8 +545,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -563,23 +565,167 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -587,17 +733,17 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -606,12 +752,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -634,17 +960,256 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -662,10 +1227,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="47" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -687,19 +1258,65 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="40% - 着色 1" xfId="1" builtinId="31"/>
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -986,33 +1603,33 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="119" zoomScaleNormal="119" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="94" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="26.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.8846153846154" style="2" customWidth="1"/>
+    <col min="2" max="2" width="26.3365384615385" style="2" customWidth="1"/>
     <col min="3" max="3" width="36" style="2" customWidth="1"/>
     <col min="4" max="4" width="9" style="2"/>
-    <col min="5" max="5" width="21.88671875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="37.6640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="6.109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="24.88671875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="26.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="21.8846153846154" style="2" customWidth="1"/>
+    <col min="6" max="6" width="37.6634615384615" style="3" customWidth="1"/>
+    <col min="7" max="7" width="6.10576923076923" style="2" customWidth="1"/>
+    <col min="8" max="8" width="24.8846153846154" style="2" customWidth="1"/>
+    <col min="9" max="9" width="26.3365384615385" style="2" customWidth="1"/>
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" ht="27" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1028,7 +1645,7 @@
       <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="4" t="s">
@@ -1041,7 +1658,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="69" x14ac:dyDescent="0.25">
+    <row r="2" ht="66" spans="1:9">
       <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
@@ -1057,18 +1674,18 @@
       <c r="E2" s="5">
         <v>1</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="14" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="5"/>
-      <c r="H2" s="13">
+      <c r="H2" s="15">
         <v>44638</v>
       </c>
-      <c r="I2" s="13">
+      <c r="I2" s="15">
         <v>44644</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="1" customFormat="1" ht="69" x14ac:dyDescent="0.25">
+    <row r="3" s="1" customFormat="1" ht="66" spans="1:9">
       <c r="A3" s="6" t="s">
         <v>13</v>
       </c>
@@ -1084,18 +1701,18 @@
       <c r="E3" s="6">
         <v>1</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="16" t="s">
         <v>16</v>
       </c>
       <c r="G3" s="6"/>
-      <c r="H3" s="15">
+      <c r="H3" s="17">
         <v>44639</v>
       </c>
-      <c r="I3" s="15">
+      <c r="I3" s="17">
         <v>44641</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="4" ht="93" spans="1:9">
       <c r="A4" s="5" t="s">
         <v>17</v>
       </c>
@@ -1111,18 +1728,18 @@
       <c r="E4" s="5">
         <v>1</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="18" t="s">
         <v>20</v>
       </c>
       <c r="G4" s="5"/>
-      <c r="H4" s="13">
+      <c r="H4" s="15">
         <v>44639</v>
       </c>
-      <c r="I4" s="13">
+      <c r="I4" s="15">
         <v>44643</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="5" ht="53" spans="1:9">
       <c r="A5" s="5" t="s">
         <v>21</v>
       </c>
@@ -1138,18 +1755,18 @@
       <c r="E5" s="5">
         <v>1</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="18" t="s">
         <v>24</v>
       </c>
       <c r="G5" s="5"/>
-      <c r="H5" s="13">
+      <c r="H5" s="15">
         <v>44649</v>
       </c>
-      <c r="I5" s="13">
+      <c r="I5" s="15">
         <v>44649</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="108.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" ht="108.6" customHeight="1" spans="1:9">
       <c r="A6" s="5" t="s">
         <v>25</v>
       </c>
@@ -1165,18 +1782,18 @@
       <c r="E6" s="5">
         <v>1</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="18" t="s">
         <v>28</v>
       </c>
       <c r="G6" s="5"/>
-      <c r="H6" s="13">
+      <c r="H6" s="15">
         <v>44640</v>
       </c>
-      <c r="I6" s="13">
+      <c r="I6" s="15">
         <v>44640</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="7" ht="53" spans="1:9">
       <c r="A7" s="5" t="s">
         <v>29</v>
       </c>
@@ -1192,18 +1809,18 @@
       <c r="E7" s="5">
         <v>1</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="18" t="s">
         <v>32</v>
       </c>
       <c r="G7" s="5"/>
-      <c r="H7" s="13">
+      <c r="H7" s="15">
         <v>44643</v>
       </c>
-      <c r="I7" s="13">
+      <c r="I7" s="15">
         <v>44646</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="8" ht="93" spans="1:9">
       <c r="A8" s="5" t="s">
         <v>33</v>
       </c>
@@ -1219,18 +1836,18 @@
       <c r="E8" s="5">
         <v>1</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="18" t="s">
         <v>36</v>
       </c>
       <c r="G8" s="5"/>
-      <c r="H8" s="13">
+      <c r="H8" s="15">
         <v>44642</v>
       </c>
-      <c r="I8" s="13">
+      <c r="I8" s="15">
         <v>44644</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="9" ht="93" spans="1:9">
       <c r="A9" s="5" t="s">
         <v>37</v>
       </c>
@@ -1246,18 +1863,18 @@
       <c r="E9" s="5">
         <v>1</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="18" t="s">
         <v>39</v>
       </c>
       <c r="G9" s="5"/>
-      <c r="H9" s="13">
+      <c r="H9" s="15">
         <v>44642</v>
       </c>
-      <c r="I9" s="13">
+      <c r="I9" s="15">
         <v>44644</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="69" x14ac:dyDescent="0.25">
+    <row r="10" ht="66" spans="1:9">
       <c r="A10" s="5" t="s">
         <v>40</v>
       </c>
@@ -1273,18 +1890,18 @@
       <c r="E10" s="5">
         <v>1</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="18" t="s">
         <v>43</v>
       </c>
       <c r="G10" s="5"/>
-      <c r="H10" s="13">
+      <c r="H10" s="15">
         <v>44642</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I10" s="15">
         <v>44648</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="11" ht="80" spans="1:9">
       <c r="A11" s="5" t="s">
         <v>44</v>
       </c>
@@ -1300,18 +1917,18 @@
       <c r="E11" s="5">
         <v>1</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="18" t="s">
         <v>47</v>
       </c>
       <c r="G11" s="5"/>
-      <c r="H11" s="13">
+      <c r="H11" s="15">
         <v>44639</v>
       </c>
-      <c r="I11" s="13">
+      <c r="I11" s="15">
         <v>44641</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="12" ht="80" spans="1:9">
       <c r="A12" s="5" t="s">
         <v>48</v>
       </c>
@@ -1327,18 +1944,18 @@
       <c r="E12" s="5">
         <v>1</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="18" t="s">
         <v>51</v>
       </c>
       <c r="G12" s="5"/>
-      <c r="H12" s="13">
+      <c r="H12" s="15">
         <v>44642</v>
       </c>
-      <c r="I12" s="13">
+      <c r="I12" s="15">
         <v>44643</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="13" ht="80" spans="1:9">
       <c r="A13" s="7">
         <v>1.4</v>
       </c>
@@ -1354,18 +1971,18 @@
       <c r="E13" s="5">
         <v>1</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="18" t="s">
         <v>54</v>
       </c>
       <c r="G13" s="5"/>
-      <c r="H13" s="13">
+      <c r="H13" s="15">
         <v>44645</v>
       </c>
-      <c r="I13" s="13">
+      <c r="I13" s="15">
         <v>44647</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="85.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" ht="85.2" customHeight="1" spans="1:9">
       <c r="A14" s="5" t="s">
         <v>55</v>
       </c>
@@ -1381,18 +1998,18 @@
       <c r="E14" s="5">
         <v>1</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="F14" s="18" t="s">
         <v>58</v>
       </c>
       <c r="G14" s="5"/>
-      <c r="H14" s="13">
+      <c r="H14" s="15">
         <v>44639</v>
       </c>
-      <c r="I14" s="13">
+      <c r="I14" s="15">
         <v>44643</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="15" ht="66" spans="1:9">
       <c r="A15" s="7">
         <v>2.1</v>
       </c>
@@ -1408,20 +2025,20 @@
       <c r="E15" s="5">
         <v>2</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="F15" s="18" t="s">
         <v>61</v>
       </c>
       <c r="G15" s="5"/>
-      <c r="H15" s="13">
+      <c r="H15" s="15">
         <v>44659</v>
       </c>
-      <c r="I15" s="13">
+      <c r="I15" s="15">
         <v>44662</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="69" x14ac:dyDescent="0.25">
+    <row r="16" ht="66" spans="1:9">
       <c r="A16" s="7">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>62</v>
@@ -1435,20 +2052,20 @@
       <c r="E16" s="5">
         <v>2</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="F16" s="18" t="s">
         <v>64</v>
       </c>
       <c r="G16" s="5"/>
-      <c r="H16" s="13">
+      <c r="H16" s="15">
         <v>44662</v>
       </c>
-      <c r="I16" s="13">
+      <c r="I16" s="15">
         <v>44662</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="17" ht="66" spans="1:9">
       <c r="A17" s="7">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>65</v>
@@ -1462,18 +2079,18 @@
       <c r="E17" s="5">
         <v>2</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="F17" s="18" t="s">
         <v>67</v>
       </c>
       <c r="G17" s="5"/>
-      <c r="H17" s="13">
+      <c r="H17" s="15">
         <v>44661</v>
       </c>
-      <c r="I17" s="13">
+      <c r="I17" s="15">
         <v>44661</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="18" ht="53" spans="1:9">
       <c r="A18" s="7">
         <v>2.4</v>
       </c>
@@ -1489,18 +2106,18 @@
       <c r="E18" s="5">
         <v>2</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="F18" s="18" t="s">
         <v>70</v>
       </c>
       <c r="G18" s="5"/>
-      <c r="H18" s="13">
+      <c r="H18" s="15">
         <v>44662</v>
       </c>
-      <c r="I18" s="13">
+      <c r="I18" s="15">
         <v>44662</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="69" x14ac:dyDescent="0.25">
+    <row r="19" ht="66" spans="1:9">
       <c r="A19" s="7">
         <v>2.5</v>
       </c>
@@ -1516,18 +2133,18 @@
       <c r="E19" s="5">
         <v>2</v>
       </c>
-      <c r="F19" s="16" t="s">
+      <c r="F19" s="18" t="s">
         <v>73</v>
       </c>
       <c r="G19" s="5"/>
-      <c r="H19" s="13">
+      <c r="H19" s="15">
         <v>44662</v>
       </c>
-      <c r="I19" s="13">
+      <c r="I19" s="15">
         <v>44662</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="20" ht="66" spans="1:9">
       <c r="A20" s="7">
         <v>2.6</v>
       </c>
@@ -1543,18 +2160,18 @@
       <c r="E20" s="5">
         <v>2</v>
       </c>
-      <c r="F20" s="16" t="s">
+      <c r="F20" s="18" t="s">
         <v>76</v>
       </c>
       <c r="G20" s="5"/>
-      <c r="H20" s="13">
+      <c r="H20" s="15">
         <v>44662</v>
       </c>
-      <c r="I20" s="13">
+      <c r="I20" s="15">
         <v>44662</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="69" x14ac:dyDescent="0.25">
+    <row r="21" ht="66" spans="1:9">
       <c r="A21" s="7">
         <v>3.1</v>
       </c>
@@ -1570,18 +2187,18 @@
       <c r="E21" s="5">
         <v>3</v>
       </c>
-      <c r="F21" s="16" t="s">
+      <c r="F21" s="18" t="s">
         <v>79</v>
       </c>
       <c r="G21"/>
-      <c r="H21" s="13">
+      <c r="H21" s="15">
         <v>44670</v>
       </c>
-      <c r="I21" s="13">
+      <c r="I21" s="15">
         <v>44672</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="22" ht="66" spans="1:9">
       <c r="A22" s="7">
         <v>3.2</v>
       </c>
@@ -1597,18 +2214,18 @@
       <c r="E22" s="5">
         <v>3</v>
       </c>
-      <c r="F22" s="16" t="s">
+      <c r="F22" s="18" t="s">
         <v>82</v>
       </c>
       <c r="G22" s="5"/>
-      <c r="H22" s="13">
+      <c r="H22" s="15">
         <v>44666</v>
       </c>
-      <c r="I22" s="13">
+      <c r="I22" s="15">
         <v>44667</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="69" x14ac:dyDescent="0.25">
+    <row r="23" ht="66" spans="1:9">
       <c r="A23" s="7">
         <v>3.3</v>
       </c>
@@ -1624,18 +2241,18 @@
       <c r="E23" s="5">
         <v>3</v>
       </c>
-      <c r="F23" s="16" t="s">
+      <c r="F23" s="18" t="s">
         <v>85</v>
       </c>
       <c r="G23" s="5"/>
-      <c r="H23" s="13">
+      <c r="H23" s="15">
         <v>44669</v>
       </c>
-      <c r="I23" s="13">
+      <c r="I23" s="15">
         <v>44670</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="24" ht="53" spans="1:9">
       <c r="A24" s="7">
         <v>3.4</v>
       </c>
@@ -1651,18 +2268,18 @@
       <c r="E24" s="5">
         <v>3</v>
       </c>
-      <c r="F24" s="16" t="s">
+      <c r="F24" s="18" t="s">
         <v>88</v>
       </c>
       <c r="G24" s="5"/>
-      <c r="H24" s="13">
+      <c r="H24" s="15">
         <v>44669</v>
       </c>
-      <c r="I24" s="13">
+      <c r="I24" s="15">
         <v>44677</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="69" x14ac:dyDescent="0.25">
+    <row r="25" ht="66" spans="1:9">
       <c r="A25" s="7">
         <v>3.5</v>
       </c>
@@ -1678,18 +2295,18 @@
       <c r="E25" s="5">
         <v>3</v>
       </c>
-      <c r="F25" s="16" t="s">
+      <c r="F25" s="18" t="s">
         <v>91</v>
       </c>
       <c r="G25"/>
-      <c r="H25" s="13">
+      <c r="H25" s="15">
         <v>44670</v>
       </c>
-      <c r="I25" s="13">
+      <c r="I25" s="15">
         <v>44670</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="69" x14ac:dyDescent="0.25">
+    <row r="26" ht="66" spans="1:9">
       <c r="A26" s="7">
         <v>3.6</v>
       </c>
@@ -1705,18 +2322,18 @@
       <c r="E26" s="5">
         <v>3</v>
       </c>
-      <c r="F26" s="16" t="s">
+      <c r="F26" s="18" t="s">
         <v>94</v>
       </c>
       <c r="G26" s="5"/>
-      <c r="H26" s="13">
+      <c r="H26" s="15">
         <v>44671</v>
       </c>
-      <c r="I26" s="13">
+      <c r="I26" s="15">
         <v>44671</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" ht="66" customHeight="1" spans="1:9">
       <c r="A27" s="7">
         <v>3.7</v>
       </c>
@@ -1732,18 +2349,18 @@
       <c r="E27" s="5">
         <v>3</v>
       </c>
-      <c r="F27" s="16" t="s">
+      <c r="F27" s="18" t="s">
         <v>97</v>
       </c>
       <c r="G27"/>
-      <c r="H27" s="13">
+      <c r="H27" s="15">
         <v>44674</v>
       </c>
-      <c r="I27" s="13">
+      <c r="I27" s="15">
         <v>44674</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="28" ht="80" spans="1:9">
       <c r="A28" s="8">
         <v>3.8</v>
       </c>
@@ -1759,22 +2376,22 @@
       <c r="E28" s="9">
         <v>3</v>
       </c>
-      <c r="F28" s="16" t="s">
+      <c r="F28" s="18" t="s">
         <v>100</v>
       </c>
       <c r="G28" s="9"/>
-      <c r="H28" s="17">
+      <c r="H28" s="19">
         <v>44675</v>
       </c>
-      <c r="I28" s="17">
+      <c r="I28" s="19">
         <v>44675</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="29" ht="53" spans="1:9">
       <c r="A29" s="7">
         <v>3.9</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="10" t="s">
         <v>101</v>
       </c>
       <c r="C29" s="5" t="s">
@@ -1786,22 +2403,22 @@
       <c r="E29" s="5">
         <v>3</v>
       </c>
-      <c r="F29" s="16" t="s">
+      <c r="F29" s="18" t="s">
         <v>103</v>
       </c>
       <c r="G29"/>
-      <c r="H29" s="13">
+      <c r="H29" s="15">
         <v>44676</v>
       </c>
-      <c r="I29" s="13">
+      <c r="I29" s="15">
         <v>44677</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A30" s="7">
+    <row r="30" ht="66" spans="1:9">
+      <c r="A30" s="11">
         <v>3.1</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="10" t="s">
         <v>104</v>
       </c>
       <c r="C30" s="5" t="s">
@@ -1813,22 +2430,22 @@
       <c r="E30" s="5">
         <v>3</v>
       </c>
-      <c r="F30" s="16" t="s">
+      <c r="F30" s="18" t="s">
         <v>106</v>
       </c>
       <c r="G30"/>
-      <c r="H30" s="13">
+      <c r="H30" s="15">
         <v>44672</v>
       </c>
-      <c r="I30" s="13">
+      <c r="I30" s="15">
         <v>44673</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="31" ht="80" spans="1:9">
       <c r="A31" s="7">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="B31" s="7" t="s">
+        <v>4.1</v>
+      </c>
+      <c r="B31" s="10" t="s">
         <v>107</v>
       </c>
       <c r="C31" s="5" t="s">
@@ -1840,17 +2457,22 @@
       <c r="E31" s="5">
         <v>4</v>
       </c>
-      <c r="F31" s="16" t="s">
+      <c r="F31" s="18" t="s">
         <v>109</v>
       </c>
       <c r="G31"/>
-      <c r="H31" s="13"/>
-    </row>
-    <row r="32" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="H31" s="15">
+        <v>44690</v>
+      </c>
+      <c r="I31" s="21">
+        <v>44691</v>
+      </c>
+    </row>
+    <row r="32" ht="53" spans="1:9">
       <c r="A32" s="7">
         <v>4.2</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="10" t="s">
         <v>110</v>
       </c>
       <c r="C32" s="5" t="s">
@@ -1862,68 +2484,72 @@
       <c r="E32" s="5">
         <v>4</v>
       </c>
-      <c r="F32" s="16" t="s">
+      <c r="F32" s="18" t="s">
         <v>112</v>
       </c>
       <c r="G32"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-    </row>
-    <row r="33" spans="1:9" ht="69" x14ac:dyDescent="0.25">
+      <c r="H32" s="15">
+        <v>44691</v>
+      </c>
+      <c r="I32" s="15">
+        <v>44692</v>
+      </c>
+    </row>
+    <row r="33" s="2" customFormat="1" ht="66" spans="1:9">
       <c r="A33" s="7">
         <v>4.3</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="10" t="s">
         <v>113</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>114</v>
       </c>
       <c r="D33" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E33" s="5">
         <v>4</v>
       </c>
-      <c r="F33" s="16" t="s">
+      <c r="F33" s="18" t="s">
         <v>115</v>
       </c>
       <c r="G33"/>
-      <c r="H33" s="13">
+      <c r="H33" s="15">
         <v>44687</v>
       </c>
-      <c r="I33" s="13">
-        <v>44688</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="69" x14ac:dyDescent="0.25">
+      <c r="I33" s="15">
+        <v>44692</v>
+      </c>
+    </row>
+    <row r="34" ht="80" spans="1:9">
       <c r="A34" s="7">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="B34" s="7" t="s">
+        <v>4.4</v>
+      </c>
+      <c r="B34" s="10" t="s">
         <v>116</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>117</v>
       </c>
       <c r="D34" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E34" s="5">
         <v>4</v>
       </c>
-      <c r="F34" s="16" t="s">
+      <c r="F34" s="18" t="s">
         <v>118</v>
       </c>
       <c r="G34"/>
-      <c r="H34" s="13">
+      <c r="H34" s="15">
         <v>44687</v>
       </c>
-      <c r="I34" s="13">
-        <v>44692</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="69" x14ac:dyDescent="0.25">
+      <c r="I34" s="15">
+        <v>44688</v>
+      </c>
+    </row>
+    <row r="35" ht="66" spans="1:9">
       <c r="A35" s="7">
         <v>4.5</v>
       </c>
@@ -1939,20 +2565,20 @@
       <c r="E35" s="5">
         <v>4</v>
       </c>
-      <c r="F35" s="16" t="s">
+      <c r="F35" s="18" t="s">
         <v>121</v>
       </c>
       <c r="G35"/>
-      <c r="H35" s="13">
+      <c r="H35" s="15">
         <v>44688</v>
       </c>
-      <c r="I35" s="13">
+      <c r="I35" s="15">
         <v>44689</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="36" ht="53" spans="1:9">
       <c r="A36" s="7">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>122</v>
@@ -1966,18 +2592,18 @@
       <c r="E36" s="5">
         <v>4</v>
       </c>
-      <c r="F36" s="16" t="s">
+      <c r="F36" s="18" t="s">
         <v>124</v>
       </c>
       <c r="G36"/>
-      <c r="H36" s="13">
+      <c r="H36" s="15">
         <v>44688</v>
       </c>
-      <c r="I36" s="13">
+      <c r="I36" s="15">
         <v>44689</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="37" ht="53" spans="1:9">
       <c r="A37" s="7">
         <v>4.7</v>
       </c>
@@ -1993,14 +2619,18 @@
       <c r="E37" s="5">
         <v>4</v>
       </c>
-      <c r="F37" s="16" t="s">
+      <c r="F37" s="18" t="s">
         <v>127</v>
       </c>
       <c r="G37"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-    </row>
-    <row r="38" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="H37" s="15">
+        <v>44687</v>
+      </c>
+      <c r="I37" s="15">
+        <v>44687</v>
+      </c>
+    </row>
+    <row r="38" ht="53" spans="1:9">
       <c r="A38" s="7">
         <v>4.8</v>
       </c>
@@ -2016,60 +2646,64 @@
       <c r="E38" s="5">
         <v>4</v>
       </c>
-      <c r="F38" s="16" t="s">
+      <c r="F38" s="18" t="s">
         <v>130</v>
       </c>
       <c r="G38"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
-    </row>
-    <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="10"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="18" t="s">
+      <c r="H38" s="15">
+        <v>44687</v>
+      </c>
+      <c r="I38" s="15">
+        <v>44688</v>
+      </c>
+    </row>
+    <row r="39" ht="14.8" spans="1:9">
+      <c r="A39" s="12"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="I39" s="13"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I40" s="13"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I41" s="13"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I42" s="13"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I43" s="13"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I44" s="13"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I45" s="13"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I46" s="13"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I47" s="13"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I48" s="13"/>
-    </row>
-    <row r="49" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I49" s="13"/>
+      <c r="I39" s="15"/>
+    </row>
+    <row r="40" spans="9:9">
+      <c r="I40" s="15"/>
+    </row>
+    <row r="41" spans="9:9">
+      <c r="I41" s="15"/>
+    </row>
+    <row r="42" spans="9:9">
+      <c r="I42" s="15"/>
+    </row>
+    <row r="43" spans="9:9">
+      <c r="I43" s="15"/>
+    </row>
+    <row r="44" spans="9:9">
+      <c r="I44" s="15"/>
+    </row>
+    <row r="45" spans="9:9">
+      <c r="I45" s="15"/>
+    </row>
+    <row r="46" spans="9:9">
+      <c r="I46" s="15"/>
+    </row>
+    <row r="47" spans="9:9">
+      <c r="I47" s="15"/>
+    </row>
+    <row r="48" spans="9:9">
+      <c r="I48" s="15"/>
+    </row>
+    <row r="49" spans="9:9">
+      <c r="I49" s="15"/>
     </row>
   </sheetData>
   <sortState ref="A2:I28">
     <sortCondition ref="D2"/>
   </sortState>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Docs/product backlog.xlsx
+++ b/Docs/product backlog.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EBU6304-2021-Software-Engineering-Group-111\Docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{510F3E4C-6DB6-462E-8A62-FC830FCACF99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="17520"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="132">
   <si>
     <t>Story ID</t>
   </si>
@@ -440,7 +446,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">heck </t>
     </r>
@@ -458,7 +464,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -545,15 +551,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -565,70 +567,25 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -636,114 +593,16 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -752,192 +611,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -960,256 +639,17 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1236,7 +676,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="47" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1262,61 +702,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
+    <cellStyle name="40% - 着色 1" xfId="1" builtinId="31"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1603,33 +1000,33 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="94" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.8846153846154" style="2" customWidth="1"/>
-    <col min="2" max="2" width="26.3365384615385" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="36" style="2" customWidth="1"/>
     <col min="4" max="4" width="9" style="2"/>
-    <col min="5" max="5" width="21.8846153846154" style="2" customWidth="1"/>
-    <col min="6" max="6" width="37.6634615384615" style="3" customWidth="1"/>
-    <col min="7" max="7" width="6.10576923076923" style="2" customWidth="1"/>
-    <col min="8" max="8" width="24.8846153846154" style="2" customWidth="1"/>
-    <col min="9" max="9" width="26.3365384615385" style="2" customWidth="1"/>
+    <col min="5" max="5" width="21.88671875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="37.6640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="6.109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="24.88671875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="26.33203125" style="2" customWidth="1"/>
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1658,7 +1055,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="66" spans="1:9">
+    <row r="2" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
@@ -1685,7 +1082,7 @@
         <v>44644</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="66" spans="1:9">
+    <row r="3" spans="1:9" s="1" customFormat="1" ht="69" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>13</v>
       </c>
@@ -1712,7 +1109,7 @@
         <v>44641</v>
       </c>
     </row>
-    <row r="4" ht="93" spans="1:9">
+    <row r="4" spans="1:9" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>17</v>
       </c>
@@ -1739,7 +1136,7 @@
         <v>44643</v>
       </c>
     </row>
-    <row r="5" ht="53" spans="1:9">
+    <row r="5" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>21</v>
       </c>
@@ -1766,7 +1163,7 @@
         <v>44649</v>
       </c>
     </row>
-    <row r="6" ht="108.6" customHeight="1" spans="1:9">
+    <row r="6" spans="1:9" ht="108.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>25</v>
       </c>
@@ -1793,7 +1190,7 @@
         <v>44640</v>
       </c>
     </row>
-    <row r="7" ht="53" spans="1:9">
+    <row r="7" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>29</v>
       </c>
@@ -1820,7 +1217,7 @@
         <v>44646</v>
       </c>
     </row>
-    <row r="8" ht="93" spans="1:9">
+    <row r="8" spans="1:9" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>33</v>
       </c>
@@ -1847,7 +1244,7 @@
         <v>44644</v>
       </c>
     </row>
-    <row r="9" ht="93" spans="1:9">
+    <row r="9" spans="1:9" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>37</v>
       </c>
@@ -1874,7 +1271,7 @@
         <v>44644</v>
       </c>
     </row>
-    <row r="10" ht="66" spans="1:9">
+    <row r="10" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>40</v>
       </c>
@@ -1901,7 +1298,7 @@
         <v>44648</v>
       </c>
     </row>
-    <row r="11" ht="80" spans="1:9">
+    <row r="11" spans="1:9" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>44</v>
       </c>
@@ -1928,7 +1325,7 @@
         <v>44641</v>
       </c>
     </row>
-    <row r="12" ht="80" spans="1:9">
+    <row r="12" spans="1:9" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>48</v>
       </c>
@@ -1955,7 +1352,7 @@
         <v>44643</v>
       </c>
     </row>
-    <row r="13" ht="80" spans="1:9">
+    <row r="13" spans="1:9" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>1.4</v>
       </c>
@@ -1982,7 +1379,7 @@
         <v>44647</v>
       </c>
     </row>
-    <row r="14" ht="85.2" customHeight="1" spans="1:9">
+    <row r="14" spans="1:9" ht="85.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>55</v>
       </c>
@@ -2009,7 +1406,7 @@
         <v>44643</v>
       </c>
     </row>
-    <row r="15" ht="66" spans="1:9">
+    <row r="15" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>2.1</v>
       </c>
@@ -2036,9 +1433,9 @@
         <v>44662</v>
       </c>
     </row>
-    <row r="16" ht="66" spans="1:9">
+    <row r="16" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>62</v>
@@ -2063,9 +1460,9 @@
         <v>44662</v>
       </c>
     </row>
-    <row r="17" ht="66" spans="1:9">
+    <row r="17" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>65</v>
@@ -2090,7 +1487,7 @@
         <v>44661</v>
       </c>
     </row>
-    <row r="18" ht="53" spans="1:9">
+    <row r="18" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>2.4</v>
       </c>
@@ -2117,7 +1514,7 @@
         <v>44662</v>
       </c>
     </row>
-    <row r="19" ht="66" spans="1:9">
+    <row r="19" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>2.5</v>
       </c>
@@ -2144,7 +1541,7 @@
         <v>44662</v>
       </c>
     </row>
-    <row r="20" ht="66" spans="1:9">
+    <row r="20" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>2.6</v>
       </c>
@@ -2171,7 +1568,7 @@
         <v>44662</v>
       </c>
     </row>
-    <row r="21" ht="66" spans="1:9">
+    <row r="21" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>3.1</v>
       </c>
@@ -2198,7 +1595,7 @@
         <v>44672</v>
       </c>
     </row>
-    <row r="22" ht="66" spans="1:9">
+    <row r="22" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>3.2</v>
       </c>
@@ -2225,7 +1622,7 @@
         <v>44667</v>
       </c>
     </row>
-    <row r="23" ht="66" spans="1:9">
+    <row r="23" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>3.3</v>
       </c>
@@ -2252,7 +1649,7 @@
         <v>44670</v>
       </c>
     </row>
-    <row r="24" ht="53" spans="1:9">
+    <row r="24" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>3.4</v>
       </c>
@@ -2279,7 +1676,7 @@
         <v>44677</v>
       </c>
     </row>
-    <row r="25" ht="66" spans="1:9">
+    <row r="25" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>3.5</v>
       </c>
@@ -2306,7 +1703,7 @@
         <v>44670</v>
       </c>
     </row>
-    <row r="26" ht="66" spans="1:9">
+    <row r="26" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>3.6</v>
       </c>
@@ -2333,7 +1730,7 @@
         <v>44671</v>
       </c>
     </row>
-    <row r="27" ht="66" customHeight="1" spans="1:9">
+    <row r="27" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>3.7</v>
       </c>
@@ -2360,7 +1757,7 @@
         <v>44674</v>
       </c>
     </row>
-    <row r="28" ht="80" spans="1:9">
+    <row r="28" spans="1:9" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>3.8</v>
       </c>
@@ -2387,7 +1784,7 @@
         <v>44675</v>
       </c>
     </row>
-    <row r="29" ht="53" spans="1:9">
+    <row r="29" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>3.9</v>
       </c>
@@ -2414,7 +1811,7 @@
         <v>44677</v>
       </c>
     </row>
-    <row r="30" ht="66" spans="1:9">
+    <row r="30" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>3.1</v>
       </c>
@@ -2441,9 +1838,9 @@
         <v>44673</v>
       </c>
     </row>
-    <row r="31" ht="80" spans="1:9">
+    <row r="31" spans="1:9" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="B31" s="10" t="s">
         <v>107</v>
@@ -2468,7 +1865,7 @@
         <v>44691</v>
       </c>
     </row>
-    <row r="32" ht="53" spans="1:9">
+    <row r="32" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>4.2</v>
       </c>
@@ -2495,7 +1892,7 @@
         <v>44692</v>
       </c>
     </row>
-    <row r="33" s="2" customFormat="1" ht="66" spans="1:9">
+    <row r="33" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>4.3</v>
       </c>
@@ -2522,9 +1919,9 @@
         <v>44692</v>
       </c>
     </row>
-    <row r="34" ht="80" spans="1:9">
+    <row r="34" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="B34" s="10" t="s">
         <v>116</v>
@@ -2549,7 +1946,7 @@
         <v>44688</v>
       </c>
     </row>
-    <row r="35" ht="66" spans="1:9">
+    <row r="35" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>4.5</v>
       </c>
@@ -2576,9 +1973,9 @@
         <v>44689</v>
       </c>
     </row>
-    <row r="36" ht="53" spans="1:9">
+    <row r="36" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>122</v>
@@ -2603,7 +2000,7 @@
         <v>44689</v>
       </c>
     </row>
-    <row r="37" ht="53" spans="1:9">
+    <row r="37" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>4.7</v>
       </c>
@@ -2630,7 +2027,7 @@
         <v>44687</v>
       </c>
     </row>
-    <row r="38" ht="53" spans="1:9">
+    <row r="38" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>4.8</v>
       </c>
@@ -2651,13 +2048,13 @@
       </c>
       <c r="G38"/>
       <c r="H38" s="15">
-        <v>44687</v>
+        <v>44691</v>
       </c>
       <c r="I38" s="15">
-        <v>44688</v>
-      </c>
-    </row>
-    <row r="39" ht="14.8" spans="1:9">
+        <v>44693</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="12"/>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
@@ -2668,42 +2065,42 @@
       </c>
       <c r="I39" s="15"/>
     </row>
-    <row r="40" spans="9:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I40" s="15"/>
     </row>
-    <row r="41" spans="9:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I41" s="15"/>
     </row>
-    <row r="42" spans="9:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I42" s="15"/>
     </row>
-    <row r="43" spans="9:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I43" s="15"/>
     </row>
-    <row r="44" spans="9:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I44" s="15"/>
     </row>
-    <row r="45" spans="9:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I45" s="15"/>
     </row>
-    <row r="46" spans="9:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I46" s="15"/>
     </row>
-    <row r="47" spans="9:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I47" s="15"/>
     </row>
-    <row r="48" spans="9:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I48" s="15"/>
     </row>
-    <row r="49" spans="9:9">
+    <row r="49" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I49" s="15"/>
     </row>
   </sheetData>
-  <sortState ref="A2:I28">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I28">
     <sortCondition ref="D2"/>
   </sortState>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Docs/product backlog.xlsx
+++ b/Docs/product backlog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EBU6304-2021-Software-Engineering-Group-111\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\CodeArea\Software Engineering\EBU6304-2021-Software-Engineering-Group-111\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{510F3E4C-6DB6-462E-8A62-FC830FCACF99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F8905D-055F-4458-8229-224254CA4E45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -375,14 +375,6 @@
     <t>-Verify that config includes airports’ name</t>
   </si>
   <si>
-    <t>Add custom preferences for different airline companys</t>
-  </si>
-  <si>
-    <t>As an airline staff
-I want enable special preference that my company provides
-So that passengers can use out product</t>
-  </si>
-  <si>
     <t>- Verify that an interface is provided to load different preference settings
 - Verify that when settings changes, preferences changes, too</t>
   </si>
@@ -396,11 +388,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">
--Verify that config includes different speeds of animation
-</t>
-  </si>
-  <si>
     <t>Add meal preference</t>
   </si>
   <si>
@@ -409,33 +396,50 @@
 So that passengers can save time</t>
   </si>
   <si>
-    <t>-Verify that meal preference changes according to config settings</t>
-  </si>
-  <si>
-    <t>Add custom theme color</t>
-  </si>
-  <si>
     <t>As an airport staff
 I want to be able to choose the theme color
 So that I can use the color that fits the airport</t>
   </si>
   <si>
-    <t>- Verify that config includes theme color entry
-- Verify that theme color changes according to config settings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Should not run if failed to load config
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">  As a         airport manager
   I want      the software not to run if it fails to load any configuration items
   So that    service with defect will not be provided to users</t>
   </si>
   <si>
-    <t xml:space="preserve">-Verify that if any configuration entry is missing or invalid, the programme does not launch
--Verify that when launch is aborted, admin is informed of problematic entries
-</t>
+    <t xml:space="preserve">  As an airline stuff        
+  I want to ensure that the text field can only be accepted 8 digits card number
+  So that card number can be unified</t>
+  </si>
+  <si>
+    <t>As a passenger
+I want to be able to know the aircraft information
+So that I can make sure I'm checking in the right flight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  As an airport staff,
+  I want to decide if the software should change to dark theme when the night falls,
+  So that passengers can have a better check-in experience.</t>
+  </si>
+  <si>
+    <t>- Verify that instance variables change only at the end of a check-in process.
+- Verify that the theme will reset to the previous light theme the next morning.</t>
+  </si>
+  <si>
+    <t>- Verify that tests can run on different OSs</t>
+  </si>
+  <si>
+    <t>- Verify that detection is accurate.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Display aircraft information  </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Should not run if failed to load config</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -445,107 +449,104 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
-      <t xml:space="preserve">heck </t>
+      <t xml:space="preserve">heck card numbers </t>
     </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>card numbers</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">  As an airline stuff        
-  I want to ensure that the text field can only be accepted 8 digits card number
-  So that card number can be unified</t>
-  </si>
-  <si>
-    <t>-Verify that there will be a warning if the card number is not 8 digits.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Display aircraft information  </t>
-  </si>
-  <si>
-    <t>As a passenger
-I want to be able to know the aircraft information
-So that I can make sure I'm checking in the right flight</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>- Verify that animation only appears when done</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>- Verify that I/O operation only happen once when launching software</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>- Verify that there will be a warning if the card number is not 8 digits.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>- Verify that meal preference changes according to config settings</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>- Verify that config includes different speeds of animation</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>- Verify that config includes theme color entry
+- Verify that theme color changes according to config settings</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>- Verify that if any configuration entry is missing or invalid, the programme does not launch
+- Verify that when launch is aborted, admin is informed of problematic entries</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>- Verify that aircraft information includes plane model, capacity and airline.
 - Verify that the aircraft information window is foldable.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>As an airline staff
+I want enable special preference that my company provides
+So that passengers can use out product</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add custom preferences for different airline companys</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add custom theme color</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Configurable auto dark theme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  As an airport staff,
-  I want to decide if the software should change to dark theme when the night falls,
-  So that passengers can have a better check-in experience.</t>
-  </si>
-  <si>
-    <t>- Verify that instance variables change only at the end of a check-in process.
-- Verify that the theme will reset to the previous light theme the next morning.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Multi-platform DB operator   </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">No-operation detection </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Configuration should use less I/O </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Animations after pressing "Pay"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  As a        passenger
+  I want      there's an animation in the payment screen 
+  So that    make sure I finish paying</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  As a         airport manager
+  I want      the software only use I/O once when launching the software
+  So that    performance is optimized</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>As an airport manager,
+I want the program back to the welcome page if no operation at the login page in a fixed time.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>As an airport manager,
 I want to check the correctness of the whole program by using tests,
 and tests should have abilities to run on different OSs.</t>
-  </si>
-  <si>
-    <t>- Verify that tests can run on different OSs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No-operation detection </t>
-  </si>
-  <si>
-    <t>As an airport manager,
-I want the program back to the welcome page if no operation at the login page in a fixed time.</t>
-  </si>
-  <si>
-    <t>- Verify that detection is accurate.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Configuration should use less I/O </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  As a         airport manager
-  I want      the software only use I/O once when launching the software
-  So that    performance is optimized</t>
-  </si>
-  <si>
-    <t>-  Verify that I/O operation only happen once when launching software</t>
-  </si>
-  <si>
-    <t>Animations after pressing "Pay"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  As a        passenger
-  I want      there's an animation in the payment screen 
-  So that    make sure I finish paying</t>
-  </si>
-  <si>
-    <t>-  Verify that animation only appears when done</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -589,17 +590,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1008,21 +1009,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="26.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="26.375" style="2" customWidth="1"/>
     <col min="3" max="3" width="36" style="2" customWidth="1"/>
     <col min="4" max="4" width="9" style="2"/>
-    <col min="5" max="5" width="21.88671875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="37.6640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="6.109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="24.88671875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="26.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="21.875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="37.625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="6.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="24.875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="26.375" style="2" customWidth="1"/>
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1055,7 +1056,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="69" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
@@ -1082,7 +1083,7 @@
         <v>44644</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="1" customFormat="1" ht="69" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>13</v>
       </c>
@@ -1109,7 +1110,7 @@
         <v>44641</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>17</v>
       </c>
@@ -1136,7 +1137,7 @@
         <v>44643</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>21</v>
       </c>
@@ -1190,7 +1191,7 @@
         <v>44640</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>29</v>
       </c>
@@ -1217,7 +1218,7 @@
         <v>44646</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>33</v>
       </c>
@@ -1244,7 +1245,7 @@
         <v>44644</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>37</v>
       </c>
@@ -1271,7 +1272,7 @@
         <v>44644</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="69" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>40</v>
       </c>
@@ -1298,7 +1299,7 @@
         <v>44648</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>44</v>
       </c>
@@ -1325,7 +1326,7 @@
         <v>44641</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>48</v>
       </c>
@@ -1352,7 +1353,7 @@
         <v>44643</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>1.4</v>
       </c>
@@ -1379,7 +1380,7 @@
         <v>44647</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="85.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="85.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>55</v>
       </c>
@@ -1406,7 +1407,7 @@
         <v>44643</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>2.1</v>
       </c>
@@ -1433,7 +1434,7 @@
         <v>44662</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="69" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>2.2000000000000002</v>
       </c>
@@ -1460,7 +1461,7 @@
         <v>44662</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>2.2999999999999998</v>
       </c>
@@ -1487,7 +1488,7 @@
         <v>44661</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>2.4</v>
       </c>
@@ -1514,7 +1515,7 @@
         <v>44662</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="69" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>2.5</v>
       </c>
@@ -1541,7 +1542,7 @@
         <v>44662</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>2.6</v>
       </c>
@@ -1568,7 +1569,7 @@
         <v>44662</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="69" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>3.1</v>
       </c>
@@ -1595,7 +1596,7 @@
         <v>44672</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>3.2</v>
       </c>
@@ -1622,7 +1623,7 @@
         <v>44667</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="69" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>3.3</v>
       </c>
@@ -1649,7 +1650,7 @@
         <v>44670</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>3.4</v>
       </c>
@@ -1676,7 +1677,7 @@
         <v>44677</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="69" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>3.5</v>
       </c>
@@ -1703,7 +1704,7 @@
         <v>44670</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="69" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>3.6</v>
       </c>
@@ -1735,10 +1736,10 @@
         <v>3.7</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="D27" s="5">
         <v>2</v>
@@ -1747,7 +1748,7 @@
         <v>3</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G27"/>
       <c r="H27" s="15">
@@ -1757,15 +1758,15 @@
         <v>44674</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>3.8</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D28" s="9">
         <v>2</v>
@@ -1774,7 +1775,7 @@
         <v>3</v>
       </c>
       <c r="F28" s="18" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="G28" s="9"/>
       <c r="H28" s="19">
@@ -1784,15 +1785,15 @@
         <v>44675</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>3.9</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D29" s="5">
         <v>2</v>
@@ -1801,7 +1802,7 @@
         <v>3</v>
       </c>
       <c r="F29" s="18" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="G29"/>
       <c r="H29" s="15">
@@ -1811,15 +1812,15 @@
         <v>44677</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>3.1</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D30" s="5">
         <v>3</v>
@@ -1828,7 +1829,7 @@
         <v>3</v>
       </c>
       <c r="F30" s="18" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="G30"/>
       <c r="H30" s="15">
@@ -1838,15 +1839,15 @@
         <v>44673</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>4.0999999999999996</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D31" s="5">
         <v>2</v>
@@ -1855,7 +1856,7 @@
         <v>4</v>
       </c>
       <c r="F31" s="18" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="G31"/>
       <c r="H31" s="15">
@@ -1865,15 +1866,15 @@
         <v>44691</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>4.2</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="D32" s="5">
         <v>2</v>
@@ -1882,7 +1883,7 @@
         <v>4</v>
       </c>
       <c r="F32" s="18" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G32"/>
       <c r="H32" s="15">
@@ -1892,15 +1893,15 @@
         <v>44692</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="69" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>4.3</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="D33" s="5">
         <v>3</v>
@@ -1909,7 +1910,7 @@
         <v>4</v>
       </c>
       <c r="F33" s="18" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G33"/>
       <c r="H33" s="15">
@@ -1919,15 +1920,15 @@
         <v>44692</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="69" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <v>4.4000000000000004</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="D34" s="5">
         <v>4</v>
@@ -1936,7 +1937,7 @@
         <v>4</v>
       </c>
       <c r="F34" s="18" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="G34"/>
       <c r="H34" s="15">
@@ -1946,15 +1947,15 @@
         <v>44688</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="69" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>4.5</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D35" s="5">
         <v>4</v>
@@ -1963,7 +1964,7 @@
         <v>4</v>
       </c>
       <c r="F35" s="18" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="G35"/>
       <c r="H35" s="15">
@@ -1973,15 +1974,15 @@
         <v>44689</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>4.5999999999999996</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="D36" s="5">
         <v>4</v>
@@ -1990,7 +1991,7 @@
         <v>4</v>
       </c>
       <c r="F36" s="18" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="G36"/>
       <c r="H36" s="15">
@@ -2000,15 +2001,15 @@
         <v>44689</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>4.7</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D37" s="5">
         <v>4</v>
@@ -2017,7 +2018,7 @@
         <v>4</v>
       </c>
       <c r="F37" s="18" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="G37"/>
       <c r="H37" s="15">
@@ -2027,15 +2028,15 @@
         <v>44687</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>4.8</v>
       </c>
       <c r="B38" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C38" s="5" t="s">
         <v>128</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>129</v>
       </c>
       <c r="D38" s="5">
         <v>4</v>
@@ -2044,7 +2045,7 @@
         <v>4</v>
       </c>
       <c r="F38" s="18" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="G38"/>
       <c r="H38" s="15">
@@ -2054,14 +2055,14 @@
         <v>44693</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="12"/>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
       <c r="D39" s="12"/>
       <c r="E39" s="12"/>
       <c r="F39" s="20" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="I39" s="15"/>
     </row>
@@ -2099,8 +2100,8 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I28">
     <sortCondition ref="D2"/>
   </sortState>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>